--- a/data/hotels_by_city/Houston/Houston_shard_150.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223144-Reviews-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,1128 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r552575040-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223144</t>
+  </si>
+  <si>
+    <t>552575040</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Updated and look fresh</t>
+  </si>
+  <si>
+    <t>This courtyard has been updated, looks fairly fresh, and comfortable. There are even plenty of power outlets for modern travelers. Hotel staff is attentive and professional. The location is also very convenient, with lots of foods and shopping options nearby.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r541649998-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541649998</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>We stayed here last weekend to attend a wedding at Ashelynn Manor in Magnolia - the venue was about 30 minutes away.  The rooms are extremely clean, beds are comfortable and staff is very friendly.  We were disappointed that the Bistro wasn't open during the afternoon for snacks and drinks before the wedding.  I didn't see a time online but hotel staff said it opened at 5p on Saturday.  Starbucks, McDonalds and lots of restaurants nearby, although some require u-turns to get to.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r536055346-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536055346</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>A Great Standard Hotel</t>
+  </si>
+  <si>
+    <t>Very clean, nice rooms with ample space. This is in a less populate area of Houston and more in the suburbs. There are great restaurants nearby, some of the best in Houston, which make this location desirable. The rooms are clean, spacious, quiet, and a bit on the spartan side.  So don't expect a coffee make,  bathrobe, for fancy mini-bar, if that is what you are used to. I was here for business and the Courtyard Houston NW met my needs.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r497238521-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497238521</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Service </t>
+  </si>
+  <si>
+    <t>I stayed at Courtyard for three night on my visit to Spring TX for a conference. The hotel was clean and the staff friendly. The attendants at the Bistro were friendly and offered great service; the front desk attendant Eric was also friendly and very efficient. Overall, my visit was a good experience with no complaints.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r484040954-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484040954</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Good for business travels</t>
+  </si>
+  <si>
+    <t>Had a large room with with great bed. The AC where a little bit loud, but other than than really good.Great service and helpful staff.The breakfast was not as good as expected, not that the actual food was bad, you needed to order everything and then wait to be served.When a lot of people arrive at the same time, there where a long wait for ordering and on morning i had to leave without breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>jennifer h, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Had a large room with with great bed. The AC where a little bit loud, but other than than really good.Great service and helpful staff.The breakfast was not as good as expected, not that the actual food was bad, you needed to order everything and then wait to be served.When a lot of people arrive at the same time, there where a long wait for ordering and on morning i had to leave without breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r474154130-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474154130</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>a very good services</t>
+  </si>
+  <si>
+    <t>All the review will be good as my stay was very pleasant, check in was good the staff were excellent,The room was clean and up to date, did not have old furniture as the case with old hotels, the staff all throw the stay were very good I can’t say anything negative.MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz S, General Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>All the review will be good as my stay was very pleasant, check in was good the staff were excellent,The room was clean and up to date, did not have old furniture as the case with old hotels, the staff all throw the stay were very good I can’t say anything negative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r460556495-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460556495</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent location, cafe, and room amenities</t>
+  </si>
+  <si>
+    <t>Stayed here many times.  They have added a lot of outlets and usb power connections in the rooms. The cafe is excellent. people are very helpful.  It is very near by HPE and HP campus.  Northwest of the city and about 25 miles from the Bush airport (IAH).  Can take 25 to 50 minutes to the airport.   I will be back.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r441309105-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441309105</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Very good, have all what you need</t>
+  </si>
+  <si>
+    <t>I used to stay here few years back and moved to other hotels in Houston but now I came backThe rooms are fresh, perhaps recently renovated.Enough electric sockets all over the room and USB chargers. Very good for the road traveler.Room is clean, specious, have all you need beside a safe that is missingBreakfast - USA small Starbucks bistro.Has resonance items but expensive</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r439265638-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439265638</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>Property was up to date. Very nice room. It was clean. Lobby area was very nice. Had a great nights sleep. Would recommend this hotel for anyone staying in this part of Houston. The service staff was very friendly.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r430715344-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430715344</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Unbelievable Service!!!</t>
+  </si>
+  <si>
+    <t>A customer from out of town to attend a wedding had the misfortune of breaking a zipper while getting dressed.  Quick action by Oliver, the manager, got her in the hotel van and whisked her off to our store, T. Carolyn Fashions  8 mins away.  It was the quickest sale we've made in 25 years!  While Oliver waited outside in the running van, the frantic customer came in, tried on and purchased a dress.  Off they went and Oliver drove them  to the about to start wedding!  Now this is what I call first class service.  Kudos to Oliver and the Marriott Northwest.MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz S, General Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>A customer from out of town to attend a wedding had the misfortune of breaking a zipper while getting dressed.  Quick action by Oliver, the manager, got her in the hotel van and whisked her off to our store, T. Carolyn Fashions  8 mins away.  It was the quickest sale we've made in 25 years!  While Oliver waited outside in the running van, the frantic customer came in, tried on and purchased a dress.  Off they went and Oliver drove them  to the about to start wedding!  Now this is what I call first class service.  Kudos to Oliver and the Marriott Northwest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r425936467-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425936467</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Fabulous staff &amp; great bed!</t>
+  </si>
+  <si>
+    <t>Arriving late and somewhat jet-lagged from the UK Alex on the desk was mega-helpful sorting me a taxi &amp; a store from which to buy a printer. Next day, Heather equally fabulous with recommendations for more interesting shopping. Beds wonderfully comfy but it's the staff who made it for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz S, General Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Arriving late and somewhat jet-lagged from the UK Alex on the desk was mega-helpful sorting me a taxi &amp; a store from which to buy a printer. Next day, Heather equally fabulous with recommendations for more interesting shopping. Beds wonderfully comfy but it's the staff who made it for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r425325991-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425325991</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Don't ask me to save water by reusing my towel if you are going to leave the toilet running non-stop</t>
+  </si>
+  <si>
+    <t>I haven't stayed at this property in probably 10 years since their rates went up beyond the value that they offer.   This trip, though, I had business colleagues who wanted to stay there, so I did the same.   Well, for the price tag, this place really needs to do some upgrades.  It is really getting run down.   The room next to mine had open wiring in the wall and wallpaper peeled off of the wall.   My room was in slightly better shape, but the toilet tank leaks non-stop and therefore the only way to sleep in the room is to close the bathroom door to avoid hearing the constant sounds of water refilling the tank.   And on that bathroom door that had to be closed ... a sign asking me to save water by reusing my towel.   Really????MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz S, General Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded October 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2016</t>
+  </si>
+  <si>
+    <t>I haven't stayed at this property in probably 10 years since their rates went up beyond the value that they offer.   This trip, though, I had business colleagues who wanted to stay there, so I did the same.   Well, for the price tag, this place really needs to do some upgrades.  It is really getting run down.   The room next to mine had open wiring in the wall and wallpaper peeled off of the wall.   My room was in slightly better shape, but the toilet tank leaks non-stop and therefore the only way to sleep in the room is to close the bathroom door to avoid hearing the constant sounds of water refilling the tank.   And on that bathroom door that had to be closed ... a sign asking me to save water by reusing my towel.   Really????More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r391054440-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391054440</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This is actually a great little hotel in the northwest part of Houston. The staff is really friendly, the rooms were recently renovated so everything is clean, fresh, and modern. The bed was super comfortable and the air conditioning worked like a champ albeit a bit noisy. Good water pressure in the shower - one sink only so you'll need to share if coming with someone. There is a bistro in the lobby area that serves breakfast and food between 5-10pm but there are so many restaurants and shops within 1 mile of the hotel, you will have lots of choices. The basic wifi was free and worked very well. They have computers in the lobby you can use for free and ones attached to printers so you can print a boarding pass if you need to - again, for free. There is a pool, whirlpool and nice fitness room with machines and weights.  I was very pleased with my stay here and would definitely stay here again if I had a need to be in north west Houston in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This is actually a great little hotel in the northwest part of Houston. The staff is really friendly, the rooms were recently renovated so everything is clean, fresh, and modern. The bed was super comfortable and the air conditioning worked like a champ albeit a bit noisy. Good water pressure in the shower - one sink only so you'll need to share if coming with someone. There is a bistro in the lobby area that serves breakfast and food between 5-10pm but there are so many restaurants and shops within 1 mile of the hotel, you will have lots of choices. The basic wifi was free and worked very well. They have computers in the lobby you can use for free and ones attached to printers so you can print a boarding pass if you need to - again, for free. There is a pool, whirlpool and nice fitness room with machines and weights.  I was very pleased with my stay here and would definitely stay here again if I had a need to be in north west Houston in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r389407472-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389407472</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon arrival I discovered that the lady in reservations had booked us the wrong room. However, the girl at the front desk was quick to fix the error and get us in the right room. Very courteous and nice. The breakfast was good, the room was nice and clean and had everything we needed. This is our favorite Houston hotel! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r378792347-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378792347</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Amazing customer experience</t>
+  </si>
+  <si>
+    <t>I arrived late at night 2 weeks ago and asked if the receptionist could help me with finding an eye specialist within the next hours (I thought my retina needed urgent care). Not only the receptionist called for me, but she also had me called back by an hospital at 11pm. And then the next day when I woke up, I had a Get Well Soon post card under my door. I cannot thank enough this receptionist for what she did for me, and all the staff.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r339521860-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339521860</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel pretty basic geared more for business great location</t>
+  </si>
+  <si>
+    <t>My husband came here on business and I accompanied him.  He is silver status Marriott member.  This hotel I feel is very basic.  They have the Bistro area like many of their hotels have.   Breakfast is not included in the cost and it's not a homemade breakfast sandwich..more like something you would get at Starbucks (items precooked and heated in microwave).  The lobby area is very nice with lots of seating.The staff are friendly but we have been treated more welcoming at other Marriott hotels ie (as a silver member we have been given a welcome bag with chips/apple/water/free breakfast sandwiches and drinks etc.  So compared to our other experiences this feels very stripped down and basic.  Does not mean it's bad...just an observation.Room was not very big, but bed was comfortable and it was clean.  Nice workout room with a variety of machines. Treadmill/elliptical/stationary bike and weights.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>msboro75, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>My husband came here on business and I accompanied him.  He is silver status Marriott member.  This hotel I feel is very basic.  They have the Bistro area like many of their hotels have.   Breakfast is not included in the cost and it's not a homemade breakfast sandwich..more like something you would get at Starbucks (items precooked and heated in microwave).  The lobby area is very nice with lots of seating.The staff are friendly but we have been treated more welcoming at other Marriott hotels ie (as a silver member we have been given a welcome bag with chips/apple/water/free breakfast sandwiches and drinks etc.  So compared to our other experiences this feels very stripped down and basic.  Does not mean it's bad...just an observation.Room was not very big, but bed was comfortable and it was clean.  Nice workout room with a variety of machines. Treadmill/elliptical/stationary bike and weights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r335750901-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335750901</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green </t>
+  </si>
+  <si>
+    <t>It is a great place to stay staff is friendly and nice rooms are very clean and the staff was very helpful i would recommend this place to family and friends,its in a great location lots of restaurants and shopping centers. It's a home away from home.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r334493319-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334493319</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>This was a great stay!</t>
+  </si>
+  <si>
+    <t>I only had to be in Houston for a few nights and found this hotel because it was convenient to where my meetings were. While it's nothing flashy, the hotel is well located, clean and comfortable. The staff here were all fantastic and super friendly - I would recommend the hotel to anyone!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r310773231-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310773231</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Courtyard by Marriott, highly recommended!!!</t>
+  </si>
+  <si>
+    <t>Terrific place to stay in the Houston area!!!   Great room and hospitality service...Good price for terrific quality!!!  Use of a GPS helps, especially at night!!!  Many terrific restaurants located in Kingswood Mall in Springs, Texas!!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r300319778-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300319778</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Good clean place, close to work/dinning</t>
+  </si>
+  <si>
+    <t>Good location, recently remodelled. Number of nice restaurants close by, and also close to HP. At AC in my room was an old/under window model, and as a result pretty loud; though there are rooms that have a more modern set up. Staff is very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r296988985-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296988985</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible </t>
+  </si>
+  <si>
+    <t>My in laws were at the Courtyard Marriott whenever they came into town but not anymore. The manager on duty Anaelisse was so unkind to me. She kept me waiting for over 30 minutes. Their customer service is terrible. Pick any other hotel in town if your looking to stay at a place with courtesy. They only received a rating of 1/5 from me because I couldn't choose 0/5. MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz S, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>My in laws were at the Courtyard Marriott whenever they came into town but not anymore. The manager on duty Anaelisse was so unkind to me. She kept me waiting for over 30 minutes. Their customer service is terrible. Pick any other hotel in town if your looking to stay at a place with courtesy. They only received a rating of 1/5 from me because I couldn't choose 0/5. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r265569360-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265569360</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>One night visit</t>
+  </si>
+  <si>
+    <t>Attended a swim meet in the area. Hotel was very clean, rooms were very comfortable and the bed was amazing! A slight complaint, hotel was near full yet not much staff, those that were working were trying their best to check clients in, manage bar, etc. a few families were very unhappy with lengthy wait for cards, drinks, food etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Attended a swim meet in the area. Hotel was very clean, rooms were very comfortable and the bed was amazing! A slight complaint, hotel was near full yet not much staff, those that were working were trying their best to check clients in, manage bar, etc. a few families were very unhappy with lengthy wait for cards, drinks, food etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r263657948-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263657948</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel but...</t>
+  </si>
+  <si>
+    <t>I stayed here days and I really like the hotel.  The people running the place are very nice and helpful.  The rooms and good size and t is a good hotel.  There are a couple problems though.  The internet is not a great connection, I keep losing the connection.  The hotel is quite away from downtown Houston.  But the big problem I had was the pool was nice but it was not heated.  No one can swim in it, it is very, very cold.  I asked a man who worked there outside and he said they do not heat the pool.  It gets warm in the summer.  Pretty disappointing!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here days and I really like the hotel.  The people running the place are very nice and helpful.  The rooms and good size and t is a good hotel.  There are a couple problems though.  The internet is not a great connection, I keep losing the connection.  The hotel is quite away from downtown Houston.  But the big problem I had was the pool was nice but it was not heated.  No one can swim in it, it is very, very cold.  I asked a man who worked there outside and he said they do not heat the pool.  It gets warm in the summer.  Pretty disappointing!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r262982852-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262982852</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Good place, not the best room</t>
+  </si>
+  <si>
+    <t>When I entered- it was like coming back to an old place. All courtyard are the sameLobby is nice, breakfast is ok and the staff is welcomingThe room-Was clean, regularBut the TVER didn't work,properly and outside the room I had an air blowerThe noise was disturbingMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>When I entered- it was like coming back to an old place. All courtyard are the sameLobby is nice, breakfast is ok and the staff is welcomingThe room-Was clean, regularBut the TVER didn't work,properly and outside the room I had an air blowerThe noise was disturbingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r257187503-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257187503</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Amazing Beds!</t>
+  </si>
+  <si>
+    <t>Though we live locally, my husband and I chose this hotel for a mini staycation. We found the location to be convenient to many eateries and attractions that out of town visitors would most likely enjoy. However, if you choose a room with a balcony, and opt to sleep with the balcony door open due to nice weather, you may not get much restful sleep: The traffic noise will probably wake you. With the door shut, though, you cannot hear the passing vehicles.The lobby, cafe, and lounge areas were nicely decorated, looked very modern and appeared extremely clean. Our room was very spacious and clean, and they had the heat turned on for us when we checked in.The best part of our stay would have to be the sleep we got. I have never slept on a more comfortable bed that was suitable for both my husband and I. We both woke up without the chronic back pain we face daily. I plan on contacting the hotel to get more information on their beds. We must have one!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Though we live locally, my husband and I chose this hotel for a mini staycation. We found the location to be convenient to many eateries and attractions that out of town visitors would most likely enjoy. However, if you choose a room with a balcony, and opt to sleep with the balcony door open due to nice weather, you may not get much restful sleep: The traffic noise will probably wake you. With the door shut, though, you cannot hear the passing vehicles.The lobby, cafe, and lounge areas were nicely decorated, looked very modern and appeared extremely clean. Our room was very spacious and clean, and they had the heat turned on for us when we checked in.The best part of our stay would have to be the sleep we got. I have never slept on a more comfortable bed that was suitable for both my husband and I. We both woke up without the chronic back pain we face daily. I plan on contacting the hotel to get more information on their beds. We must have one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r256411444-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256411444</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Location Location Location</t>
+  </si>
+  <si>
+    <t>You know what you get when staying at a Courtyard. This location has great weekend rates if you know now to find them. My rate went from over $100 to $75 with a little work on the internet.Best about this Courtyard is the location in Northwest Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>You know what you get when staying at a Courtyard. This location has great weekend rates if you know now to find them. My rate went from over $100 to $75 with a little work on the internet.Best about this Courtyard is the location in Northwest Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r255857096-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255857096</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Nice place to stay, reasonable.Room was pristine.... Bed was awesome.   Bathroom clean as it gets.  Front desk staff cordial.  Housekeeping attentive.Was conveniently located, very trendy lobby area.   Surrounding area has much appeal... Shopping, restaurants, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay, reasonable.Room was pristine.... Bed was awesome.   Bathroom clean as it gets.  Front desk staff cordial.  Housekeeping attentive.Was conveniently located, very trendy lobby area.   Surrounding area has much appeal... Shopping, restaurants, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r246892465-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246892465</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Problem with temperature control in room</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and was extremely convenient for our visit to family over New Year's Eve. We liked the modern decor, room was very comfortable, front desk staff was friendly and helpful. The problem was the temperature control system. It was 32 degrees outside the night we were there, but the heating unit never operated properly. It would come on, and once it reached a certain temp, the heat would go off and the AC would come on. It was WAY too cold out to be wanting any AC!. We tried all night to get it to hold a warm temp, but it never happened. And the fan ran all night long, even with the control set to "auto" rather than "fan". We reported this to the front desk twice prior to leaving the hotel, but found we weren't alone in our concern. Two other couples that were leaving reported the same problem with their rooms and their temperature control feature.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded January 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2015</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and was extremely convenient for our visit to family over New Year's Eve. We liked the modern decor, room was very comfortable, front desk staff was friendly and helpful. The problem was the temperature control system. It was 32 degrees outside the night we were there, but the heating unit never operated properly. It would come on, and once it reached a certain temp, the heat would go off and the AC would come on. It was WAY too cold out to be wanting any AC!. We tried all night to get it to hold a warm temp, but it never happened. And the fan ran all night long, even with the control set to "auto" rather than "fan". We reported this to the front desk twice prior to leaving the hotel, but found we weren't alone in our concern. Two other couples that were leaving reported the same problem with their rooms and their temperature control feature.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r244598305-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244598305</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Good, quiet, across the street from the HP Campus</t>
+  </si>
+  <si>
+    <t>I stayed here for a week while at training at the HP Campus. they are always good to us, and happy to give us a ride anywhere locally, and pick us back up. The staff is always friendly, and are always helpful with answering questions about where to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a week while at training at the HP Campus. they are always good to us, and happy to give us a ride anywhere locally, and pick us back up. The staff is always friendly, and are always helpful with answering questions about where to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r241355907-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241355907</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Great hotel with even better service.</t>
+  </si>
+  <si>
+    <t>Very clean rooms. Had no problems getting extra pillows. "I love to snuggle" 1 problem i have to say with this hotel is there's only one employee working in the restaurant. But thankfully she's an amazing worker, Joan. I orderd a full meal from drinks to fresh cookies.. great conversation and excellent knowledge behind the bar she gave me good ideas on places to go within the area. I travel a lot and always make sure I stay at this hotel just for the warm service when I am in Houston..MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded November 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2014</t>
+  </si>
+  <si>
+    <t>Very clean rooms. Had no problems getting extra pillows. "I love to snuggle" 1 problem i have to say with this hotel is there's only one employee working in the restaurant. But thankfully she's an amazing worker, Joan. I orderd a full meal from drinks to fresh cookies.. great conversation and excellent knowledge behind the bar she gave me good ideas on places to go within the area. I travel a lot and always make sure I stay at this hotel just for the warm service when I am in Houston..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r227002118-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227002118</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Very nice place friendly staff, had 1 issue</t>
+  </si>
+  <si>
+    <t>Upon arriving, the lobby is welcoming and so are the staff.  We got into our room, unloaded all our items and got situated.  I realized the light bulb was out in the bathroom and you need it to take a shower (pretty dark).  I called down to the desk and let them know.  They said ok.  We left for dinner and I expected it to be taken care of.  Came back, and had not been replaced.  I called down again and was informed that there was no on one the premise to change the bulb.  I offered to change myself if they could bring a bulb-but was told they cannot get into the closet where they are kept.  He offered to move us to another room (he said was bigger and would upgrade at no charge).  We were moved just down the hall but same size room.  Everything was good with this room except while watching tv, the signal went out and the phone went out as well (i tried to call front desk)  Overall nice hotel good location.  Close to restaurants, mall, grocery, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded September 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2014</t>
+  </si>
+  <si>
+    <t>Upon arriving, the lobby is welcoming and so are the staff.  We got into our room, unloaded all our items and got situated.  I realized the light bulb was out in the bathroom and you need it to take a shower (pretty dark).  I called down to the desk and let them know.  They said ok.  We left for dinner and I expected it to be taken care of.  Came back, and had not been replaced.  I called down again and was informed that there was no on one the premise to change the bulb.  I offered to change myself if they could bring a bulb-but was told they cannot get into the closet where they are kept.  He offered to move us to another room (he said was bigger and would upgrade at no charge).  We were moved just down the hall but same size room.  Everything was good with this room except while watching tv, the signal went out and the phone went out as well (i tried to call front desk)  Overall nice hotel good location.  Close to restaurants, mall, grocery, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r223810555-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223810555</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Great staff!   Very accommodating and welcoming.  The hotel was clean, comfortable and appeared to be well managed.  I had breakfast there each morning, a little pricey but good.  It is located a little off the path but not so far that your completely isolated. In fact I kind of liked not being directly in the hustle and bustle. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded August 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2014</t>
+  </si>
+  <si>
+    <t>Great staff!   Very accommodating and welcoming.  The hotel was clean, comfortable and appeared to be well managed.  I had breakfast there each morning, a little pricey but good.  It is located a little off the path but not so far that your completely isolated. In fact I kind of liked not being directly in the hustle and bustle. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r222364355-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222364355</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Stayed there two times this year, very good hotel</t>
+  </si>
+  <si>
+    <t>I stayed two times thsi year in this Courtyard, January and June.The hotel is close to my work, so that's very conveniant.At check-in I noticed the professionalism of the staff.I felt myself appreciated.In January we had a situation, it was freezing in Houston.The motorists in the Houston area are not very used on this cold conditions and the news showed a lot of traffic jams, accidents and iced roads.This had an inpact on the availability of the staff in the breakfast room.Since the staff was not ontime, the staff of the reception started to make coffee and giving muffins for breakfast. Without billing you. Yes adaptive service, well done !I came back in June, this time I had a room at the back of the hotel.Because those rooms have less sunshine, the airco has to make less overtime.So for this I recommend a room at the back instead of the front of the hotel.The room was clean and the bed is of good quality.Considerations for improvements:Offer a more European style breakfastAn in-room safe, big enough to store a 15" laptop.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed two times thsi year in this Courtyard, January and June.The hotel is close to my work, so that's very conveniant.At check-in I noticed the professionalism of the staff.I felt myself appreciated.In January we had a situation, it was freezing in Houston.The motorists in the Houston area are not very used on this cold conditions and the news showed a lot of traffic jams, accidents and iced roads.This had an inpact on the availability of the staff in the breakfast room.Since the staff was not ontime, the staff of the reception started to make coffee and giving muffins for breakfast. Without billing you. Yes adaptive service, well done !I came back in June, this time I had a room at the back of the hotel.Because those rooms have less sunshine, the airco has to make less overtime.So for this I recommend a room at the back instead of the front of the hotel.The room was clean and the bed is of good quality.Considerations for improvements:Offer a more European style breakfastAn in-room safe, big enough to store a 15" laptop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r212140184-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212140184</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Good Stay for Business</t>
+  </si>
+  <si>
+    <t>The hotel location is very good, convenient enough for my business trip.The room is big and quiet. However my room got no refrigerator, which I thought should appear in all rooms.The free WiFi is pretty strong in room, but the cellphone signal is somehow very weak. Overall it has been a good stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r211412786-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211412786</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Good hotel but a bit expensive</t>
+  </si>
+  <si>
+    <t>Rooms are big and clean. The mattres needed a replacement and there is no safe in the room. Although the hotel is a bit isolated you have several restaurantes nearby. There is a Target at a walking distance and 30 meters away you have a Dominos, great to have a cheap meal and convinient if you are too tired or just want to stay in the hotel.I found the rate to be too high but I was on a business trip and the reservation was done by the company so I really dont know what other options are out there and their prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Rooms are big and clean. The mattres needed a replacement and there is no safe in the room. Although the hotel is a bit isolated you have several restaurantes nearby. There is a Target at a walking distance and 30 meters away you have a Dominos, great to have a cheap meal and convinient if you are too tired or just want to stay in the hotel.I found the rate to be too high but I was on a business trip and the reservation was done by the company so I really dont know what other options are out there and their prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r209473826-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209473826</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Clean property. Pretty isolated, though</t>
+  </si>
+  <si>
+    <t>If you're not here for business in the old Compaq you'll find the surroundings pretty boring.There are a frw restaurants and a bar in the strip mall just to the east of the hotel, and Brewskis, although loud, is the best of them. Great beer selection and decent food.The hotel itself: Clean and looks freshly updated. Very nice staff. My room, 214, was very noisy though - the wall air conditioner was extremely loud, as these things always are, and since it is necessary to keep it on 24/7 in Houston in June it made it difficult to sleep. Add to that that there seemed to be zero sound proofing in the walls, and you can imagine I've had better nights. Every time the people in the next room, or on the floors above, went to the toilet or had a shower I thought I had the Niagara Falls two feet from the head of the bedMoreShow less</t>
+  </si>
+  <si>
+    <t>If you're not here for business in the old Compaq you'll find the surroundings pretty boring.There are a frw restaurants and a bar in the strip mall just to the east of the hotel, and Brewskis, although loud, is the best of them. Great beer selection and decent food.The hotel itself: Clean and looks freshly updated. Very nice staff. My room, 214, was very noisy though - the wall air conditioner was extremely loud, as these things always are, and since it is necessary to keep it on 24/7 in Houston in June it made it difficult to sleep. Add to that that there seemed to be zero sound proofing in the walls, and you can imagine I've had better nights. Every time the people in the next room, or on the floors above, went to the toilet or had a shower I thought I had the Niagara Falls two feet from the head of the bedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r201482133-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201482133</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Great for a business trip</t>
+  </si>
+  <si>
+    <t>Excellent hotel near the campus of HP in Louetta RD, very clean and with free parking. I was on the first floor, but my upper floor fellows commented that in the morning they experience a losing of water pressure. They have a bistro that serves Starbucks coffee. They have free WiFi in the room, a little desk and a flat TV set.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r196795189-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196795189</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Very Nice for Short stay</t>
+  </si>
+  <si>
+    <t>They must have improved the internet looking at the other reviews,  because we ran two laptops and a tablet on the free Wifi and it worked just fine and was quick.The rooms were clean and the bed was comfortable.  This was my third hotel in 10 days of traveling and I thought it was clean, and comfortable with nice Marriott beds for the time I was there.We had free breakfast provided and that was just alright for a continental.  I will say the walls were quite thin and even water running next door was a wake-up.The staff was very nice and the sitting area for eating downstairs with televisions in the booths was a really nice and different touch. The hotel also had a very small but adequate work out room which was well equipped and clean and we used it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>They must have improved the internet looking at the other reviews,  because we ran two laptops and a tablet on the free Wifi and it worked just fine and was quick.The rooms were clean and the bed was comfortable.  This was my third hotel in 10 days of traveling and I thought it was clean, and comfortable with nice Marriott beds for the time I was there.We had free breakfast provided and that was just alright for a continental.  I will say the walls were quite thin and even water running next door was a wake-up.The staff was very nice and the sitting area for eating downstairs with televisions in the booths was a really nice and different touch. The hotel also had a very small but adequate work out room which was well equipped and clean and we used it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r196484853-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196484853</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>Fair warning</t>
+  </si>
+  <si>
+    <t>Two bills for a Courtyard? With no plugs near the bed and very frustratingly slow wifi. That is simply not acceptable nowadays. Get add on plugs for the nightstand and don't slow the connection down hoping I'll pay for improvement. I consider that insulting. (Other than that, it is a very average Courtyard.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz S, General Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded March 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2014</t>
+  </si>
+  <si>
+    <t>Two bills for a Courtyard? With no plugs near the bed and very frustratingly slow wifi. That is simply not acceptable nowadays. Get add on plugs for the nightstand and don't slow the connection down hoping I'll pay for improvement. I consider that insulting. (Other than that, it is a very average Courtyard.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r167036823-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167036823</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Ok hotel but a ways from the airport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel for the price.  Staff were friendly and helpful.  Clean.  The only downside is the location.  It's about a 15 minute trip by shuttle from the airport and not in the greatest of neighborhoods.  Also there are no restaurants nearby and you'll need to catch a cab if you want to go out for dinner.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r164550220-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164550220</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Great Business Hotel</t>
+  </si>
+  <si>
+    <t>i Love this hotel. Though not that big but rooms are spacious, the housekeeping is superb. Their buffet breakfast spread is not that huge but the limited choices are all very very good. i love the different types of berries that they offer :)The restaurant staff and even other hotel employees are very friendly and will always attend to your queries and requests. Their coffee is from starbucks! the hotel residents can even have to-go coffee is they're not having time for breaky.They have a shuttle to and fro the airport which is very good, taking into consideration how expensive taxi drivers charge. Also, a shuttle from the hotel to the walmart and back :)I definitely recommend this especially to business travellers.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>NWCourtyard H, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>i Love this hotel. Though not that big but rooms are spacious, the housekeeping is superb. Their buffet breakfast spread is not that huge but the limited choices are all very very good. i love the different types of berries that they offer :)The restaurant staff and even other hotel employees are very friendly and will always attend to your queries and requests. Their coffee is from starbucks! the hotel residents can even have to-go coffee is they're not having time for breaky.They have a shuttle to and fro the airport which is very good, taking into consideration how expensive taxi drivers charge. Also, a shuttle from the hotel to the walmart and back :)I definitely recommend this especially to business travellers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r160517508-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160517508</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>A Hostel?</t>
+  </si>
+  <si>
+    <t>OK, does anyone think that for $200 in Houston one should expect a bathrobe, slippers and a bottle of water in the room?  Think again, this hotel offers none of the above, as you should just be happy to have a bed to sleep in. Shove it, Marriott, I want a refund!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>NWCourtyard H, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2013</t>
+  </si>
+  <si>
+    <t>OK, does anyone think that for $200 in Houston one should expect a bathrobe, slippers and a bottle of water in the room?  Think again, this hotel offers none of the above, as you should just be happy to have a bed to sleep in. Shove it, Marriott, I want a refund!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r153100200-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153100200</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Nice, but loud</t>
+  </si>
+  <si>
+    <t>This is your typical Courtyard with the nice facilities, rooms, and services.   However, the road facing rooms are extremely loud and traffic runs by there all night.  If you decide to stay here I strongly suggest asking for a room on the backside of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>This is your typical Courtyard with the nice facilities, rooms, and services.   However, the road facing rooms are extremely loud and traffic runs by there all night.  If you decide to stay here I strongly suggest asking for a room on the backside of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r140725073-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140725073</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Chain hotel near chain restaurants and strip malls</t>
+  </si>
+  <si>
+    <t>This is a clean, new looking Courtyard in an area of Houston that is awash in chain restaurants and strip malls.  The hotel staff is energetic and friendly, and this Courtyard delivers what every Courtyard delivers, so at least it's predictable.  One complaint:  The ceilings are so poorly soundproofed that in the middle of night we (and our colleague some doors down) could hear people walking in the room(s) overhead.  Surprisingly pricey, given its remote location.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r138992811-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138992811</t>
+  </si>
+  <si>
+    <t>08/31/2012</t>
+  </si>
+  <si>
+    <t>Comfy enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the everyday business traveler, this location will suffice your needs. Located in the northwest corner of Houston, it has immediate access the highway system and a wide selection of eateries. The room, bedding, tv selections, and service were good. I would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r129181022-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129181022</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Clean, quiet, no bugs, friendly and helpful staff</t>
+  </si>
+  <si>
+    <t>The review title says it all.  our stay was a pleasant experience.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r122260682-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122260682</t>
+  </si>
+  <si>
+    <t>12/29/2011</t>
+  </si>
+  <si>
+    <t>Decent option and value</t>
+  </si>
+  <si>
+    <t>My husband and I were visiting family for the holidays, and we stayed at this property for several nights.  This hotel is right off the highway and across the street from Hewlett Packard.  It's a convenient option for business travellers and for families.  The room was standard and clean.  Service was good, and I appreciated knowing in advance that housekeeping services would be minimal on Christmas Day (this did not bother me in the least, but had I not been told, I would have been upset).I was a little disappointed that the rooms did not have refrigerators as a standard ammenity (unlike many other hotels I've stayed in recently).  The beds were a little soft and uncomfortable.  I was greeted as a Marriott rewards member but was not offered any special ammenity as a result.  Also, free breakfast is not provided by this brand, but free internet service is.The lobby area looked recently remodeled and had contemporary furnishings.  The hotel was very quiet.  We would consider staying here again in the future due to the convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>My husband and I were visiting family for the holidays, and we stayed at this property for several nights.  This hotel is right off the highway and across the street from Hewlett Packard.  It's a convenient option for business travellers and for families.  The room was standard and clean.  Service was good, and I appreciated knowing in advance that housekeeping services would be minimal on Christmas Day (this did not bother me in the least, but had I not been told, I would have been upset).I was a little disappointed that the rooms did not have refrigerators as a standard ammenity (unlike many other hotels I've stayed in recently).  The beds were a little soft and uncomfortable.  I was greeted as a Marriott rewards member but was not offered any special ammenity as a result.  Also, free breakfast is not provided by this brand, but free internet service is.The lobby area looked recently remodeled and had contemporary furnishings.  The hotel was very quiet.  We would consider staying here again in the future due to the convenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r120903687-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120903687</t>
+  </si>
+  <si>
+    <t>11/22/2011</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>We live nearby and just needed a room for a couple of nights while our home was unavailable. Wanted something inexpensive but well appointed as we're used to nice hotels. Courtyard didn't disappoint. Very very clean, nice beds and lovely room. Extremely pleasant and also helpful staff. The eating area, like other courtyards, is actually a restaurant...there's not a free breakfast which is fine as we don't eat much in the morning anyway. There is a breakfast spot next door "The Egg and I" which is fine but always very crowded and service slow, though food is good. Others have detailed the stores nearby but I'll add Radio Shack is next door since I needed some things for my electronics while there. I read the review from 2010 of the SUV being broken into for golf clubs...a little unusual for clubs...a purse or briefcase/laptop in sight, is always an invitation to thieves, but not usually clubs. In Houston like any big city, I suggest if you want to keep something valuable in your trunk or car, no matter what part of town, stow it before you get to your parking area so you're not a target for thieves watching. Just a good general rule for going to the gym, restaurants, hotels, (and hotels near them) etc. We were very pleased with the upscale nature of the rooms.....didn't try the internet but would have been frustrated by that if I had...We live nearby and just needed a room for a couple of nights while our home was unavailable. Wanted something inexpensive but well appointed as we're used to nice hotels. Courtyard didn't disappoint. Very very clean, nice beds and lovely room. Extremely pleasant and also helpful staff. The eating area, like other courtyards, is actually a restaurant...there's not a free breakfast which is fine as we don't eat much in the morning anyway. There is a breakfast spot next door "The Egg and I" which is fine but always very crowded and service slow, though food is good. Others have detailed the stores nearby but I'll add Radio Shack is next door since I needed some things for my electronics while there. I read the review from 2010 of the SUV being broken into for golf clubs...a little unusual for clubs...a purse or briefcase/laptop in sight, is always an invitation to thieves, but not usually clubs. In Houston like any big city, I suggest if you want to keep something valuable in your trunk or car, no matter what part of town, stow it before you get to your parking area so you're not a target for thieves watching. Just a good general rule for going to the gym, restaurants, hotels, (and hotels near them) etc. We were very pleased with the upscale nature of the rooms.....didn't try the internet but would have been frustrated by that if I had needed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We live nearby and just needed a room for a couple of nights while our home was unavailable. Wanted something inexpensive but well appointed as we're used to nice hotels. Courtyard didn't disappoint. Very very clean, nice beds and lovely room. Extremely pleasant and also helpful staff. The eating area, like other courtyards, is actually a restaurant...there's not a free breakfast which is fine as we don't eat much in the morning anyway. There is a breakfast spot next door "The Egg and I" which is fine but always very crowded and service slow, though food is good. Others have detailed the stores nearby but I'll add Radio Shack is next door since I needed some things for my electronics while there. I read the review from 2010 of the SUV being broken into for golf clubs...a little unusual for clubs...a purse or briefcase/laptop in sight, is always an invitation to thieves, but not usually clubs. In Houston like any big city, I suggest if you want to keep something valuable in your trunk or car, no matter what part of town, stow it before you get to your parking area so you're not a target for thieves watching. Just a good general rule for going to the gym, restaurants, hotels, (and hotels near them) etc. We were very pleased with the upscale nature of the rooms.....didn't try the internet but would have been frustrated by that if I had...We live nearby and just needed a room for a couple of nights while our home was unavailable. Wanted something inexpensive but well appointed as we're used to nice hotels. Courtyard didn't disappoint. Very very clean, nice beds and lovely room. Extremely pleasant and also helpful staff. The eating area, like other courtyards, is actually a restaurant...there's not a free breakfast which is fine as we don't eat much in the morning anyway. There is a breakfast spot next door "The Egg and I" which is fine but always very crowded and service slow, though food is good. Others have detailed the stores nearby but I'll add Radio Shack is next door since I needed some things for my electronics while there. I read the review from 2010 of the SUV being broken into for golf clubs...a little unusual for clubs...a purse or briefcase/laptop in sight, is always an invitation to thieves, but not usually clubs. In Houston like any big city, I suggest if you want to keep something valuable in your trunk or car, no matter what part of town, stow it before you get to your parking area so you're not a target for thieves watching. Just a good general rule for going to the gym, restaurants, hotels, (and hotels near them) etc. We were very pleased with the upscale nature of the rooms.....didn't try the internet but would have been frustrated by that if I had needed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r53197996-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53197996</t>
+  </si>
+  <si>
+    <t>01/11/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel!!!</t>
+  </si>
+  <si>
+    <t>This is a great hotel... very clean, rooms are spacious, beds are comfortable. Good selection for breakfast (I recommend you a buy a package that includes breakfast cause it can be a little expensive otherwise, but it's worth it). The gentleman serving breakfast was very nice and professional... he went out of his way to serve everybody there. It's rare to have such friendly and quality service nowadays. We had a very enjoyable stay. I recommend this hotel. There are quite a bit of restaurants and businesses near by.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r51118845-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>51118845</t>
+  </si>
+  <si>
+    <t>12/12/2009</t>
+  </si>
+  <si>
+    <t>Overnight stay in Houston while visiting HP</t>
+  </si>
+  <si>
+    <t>The Courtyard by Marriott Northwest is conveniently located when you're going to visit HP campus in Houston - 30-40 minutes drive is rather simple.The hotel itself is also not bad - rooms are adequate, staff is nice - but if you're travelling for business, then you'd better try your luck someplace else. Because internet connectivity and ability of staff to help you in off-hours (which is exactly when you need it most - either before meetings early in the morning or late in the night after getting back to your room). I spent about an hour trying to get the laptop connected but it didn't work out so the only way for me to stay "online" was my corporate smartphone. And in other hotels of the same chain I've seen about the same thing with connectivity. So if you need to be online and stay connected through hotel-provided Internet, don't stay at Courtyard by Marriott. But if you're travelling for leisure, then this is rather good place to stay in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>The Courtyard by Marriott Northwest is conveniently located when you're going to visit HP campus in Houston - 30-40 minutes drive is rather simple.The hotel itself is also not bad - rooms are adequate, staff is nice - but if you're travelling for business, then you'd better try your luck someplace else. Because internet connectivity and ability of staff to help you in off-hours (which is exactly when you need it most - either before meetings early in the morning or late in the night after getting back to your room). I spent about an hour trying to get the laptop connected but it didn't work out so the only way for me to stay "online" was my corporate smartphone. And in other hotels of the same chain I've seen about the same thing with connectivity. So if you need to be online and stay connected through hotel-provided Internet, don't stay at Courtyard by Marriott. But if you're travelling for leisure, then this is rather good place to stay in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r30547084-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>30547084</t>
+  </si>
+  <si>
+    <t>05/22/2009</t>
+  </si>
+  <si>
+    <t>Poor Performance</t>
+  </si>
+  <si>
+    <t>This hotel has a great location for visiting clients - but that is about as positive as I can get this particular courtyard. They do not seem to recognize Gold status and compared to other courtyards in the US they handle customers in a production mode. The rooms are comparable to most courtyards but the front desk staff seem to know little about Marriott service and I frequently found staff sleeping in the back office. There is no shuttle service and getting to clients that are close by - but not within easy walking distance requires calling a cab. I have stayed at this site on a number of occasions and this was the worse experience. In the past I have had problems connecting to their internet (both in-room wired service and their lobby wireless). Their front desk food and beverage selection is minimal. This is definitely a "car required" hotel and does little to give its Elite and Gold customers an experience similar to what can be found in comparable Courtyards throughout the US.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>This hotel has a great location for visiting clients - but that is about as positive as I can get this particular courtyard. They do not seem to recognize Gold status and compared to other courtyards in the US they handle customers in a production mode. The rooms are comparable to most courtyards but the front desk staff seem to know little about Marriott service and I frequently found staff sleeping in the back office. There is no shuttle service and getting to clients that are close by - but not within easy walking distance requires calling a cab. I have stayed at this site on a number of occasions and this was the worse experience. In the past I have had problems connecting to their internet (both in-room wired service and their lobby wireless). Their front desk food and beverage selection is minimal. This is definitely a "car required" hotel and does little to give its Elite and Gold customers an experience similar to what can be found in comparable Courtyards throughout the US.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r4229433-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4229433</t>
+  </si>
+  <si>
+    <t>12/08/2005</t>
+  </si>
+  <si>
+    <t>Groovy Bed and Fine Room</t>
+  </si>
+  <si>
+    <t>I got this room for less than 1/3 the rack rate from an online auction site.  I was in town for my sister's wedding and the wife and I did not want to stay with my parents who had gone crazy with wedding stuff.  The location is great - right off the highway in an upscale  suburb next to HP's local headquarters.  The room was large and clean and the bed was the bed we've ever had in a hotel.  We would highly recommend it, especially on weekends when its normal crowd of HP trainees isn't there.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1663,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1695,3389 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>199</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>223</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>224</v>
+      </c>
+      <c r="X26" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>224</v>
+      </c>
+      <c r="X27" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>238</v>
+      </c>
+      <c r="X28" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>246</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>247</v>
+      </c>
+      <c r="X29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J30" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" t="s">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>256</v>
+      </c>
+      <c r="X30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>273</v>
+      </c>
+      <c r="X32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>290</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>302</v>
+      </c>
+      <c r="X36" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>316</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>326</v>
+      </c>
+      <c r="K40" t="s">
+        <v>327</v>
+      </c>
+      <c r="L40" t="s">
+        <v>328</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>322</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>329</v>
+      </c>
+      <c r="X40" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>338</v>
+      </c>
+      <c r="J42" t="s">
+        <v>339</v>
+      </c>
+      <c r="K42" t="s">
+        <v>340</v>
+      </c>
+      <c r="L42" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>342</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>343</v>
+      </c>
+      <c r="X42" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" t="s">
+        <v>348</v>
+      </c>
+      <c r="K43" t="s">
+        <v>349</v>
+      </c>
+      <c r="L43" t="s">
+        <v>350</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>351</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>352</v>
+      </c>
+      <c r="X43" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>360</v>
+      </c>
+      <c r="O44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>352</v>
+      </c>
+      <c r="X44" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K45" t="s">
+        <v>365</v>
+      </c>
+      <c r="L45" t="s">
+        <v>366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>367</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>369</v>
+      </c>
+      <c r="J46" t="s">
+        <v>370</v>
+      </c>
+      <c r="K46" t="s">
+        <v>371</v>
+      </c>
+      <c r="L46" t="s">
+        <v>372</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>374</v>
+      </c>
+      <c r="J47" t="s">
+        <v>375</v>
+      </c>
+      <c r="K47" t="s">
+        <v>376</v>
+      </c>
+      <c r="L47" t="s">
+        <v>377</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>378</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>380</v>
+      </c>
+      <c r="J48" t="s">
+        <v>381</v>
+      </c>
+      <c r="K48" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
+        <v>383</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>384</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>110</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>400</v>
+      </c>
+      <c r="J51" t="s">
+        <v>401</v>
+      </c>
+      <c r="K51" t="s">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s">
+        <v>403</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>404</v>
+      </c>
+      <c r="O51" t="s">
+        <v>67</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>414</v>
+      </c>
+      <c r="J53" t="s">
+        <v>415</v>
+      </c>
+      <c r="K53" t="s">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s">
+        <v>417</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_150.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_150.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r597946953-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223144</t>
+  </si>
+  <si>
+    <t>597946953</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>The General Manager (Leticia Garza) is top notch.  Not only does she go out of her way to greet guests by their name, she also encourages her staff to do the same. She was training an employee upon my check-in and awarded me with something from the marketplace b/c of my patience. She is a great example for her staff on how to make guests feel welcome. I will definitely stay here when I return to Houston.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r596859381-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596859381</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Quick stop great stay</t>
+  </si>
+  <si>
+    <t>We were just passing through on our way to the coast and needed a comfortable place to stay. This was an excellent choice. Comfortable bed, quite cool room. Great coffee from the Starbucks in the lobby to get us on our way in the morning. We were very happy,</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r552575040-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223144</t>
-  </si>
-  <si>
     <t>552575040</t>
   </si>
   <si>
@@ -219,7 +255,40 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r527128340-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527128340</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Very satisfied!</t>
+  </si>
+  <si>
+    <t>I needed a hotel not far from Tomball, TX so I really wasn't fussy.   Just needed a clean room, comfortable bed and nearby restaurant.  Reading some of these reviews, there seemed to be concerns about traffic noise but I ignored it.  Glad I did.After a long drive, I arrived around 4:30.  Having used my mobile app to check in, I just had to enter the well appointed lobby, say my name and was given the key.  Wow, first impressions count.The room was another surprise.  It appeared to be recently redone, the decor was quite restful and lovely, the sofa unique shape, good-sized tv, excellent outlets for internet, and beautiful bed.  Small terrace with plastic chairs and table.  Nice bath.For dining, there is the in-store market area or a limited service lounge menu and breakfast service.  I noticed a strip mall adjacent and walked over to find a Mexican, Chinese restaurant, KFC, McDonald's, Subway, plus Target, SteinMart, etc.   Check out was again simple.  I did mention one small housekeeping item that needed attention and the desk attendant immediately put a call in.And - did I mention free parking?  And...no noticeable noise from my room which overlooked the pool. Definitely would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I needed a hotel not far from Tomball, TX so I really wasn't fussy.   Just needed a clean room, comfortable bed and nearby restaurant.  Reading some of these reviews, there seemed to be concerns about traffic noise but I ignored it.  Glad I did.After a long drive, I arrived around 4:30.  Having used my mobile app to check in, I just had to enter the well appointed lobby, say my name and was given the key.  Wow, first impressions count.The room was another surprise.  It appeared to be recently redone, the decor was quite restful and lovely, the sofa unique shape, good-sized tv, excellent outlets for internet, and beautiful bed.  Small terrace with plastic chairs and table.  Nice bath.For dining, there is the in-store market area or a limited service lounge menu and breakfast service.  I noticed a strip mall adjacent and walked over to find a Mexican, Chinese restaurant, KFC, McDonald's, Subway, plus Target, SteinMart, etc.   Check out was again simple.  I did mention one small housekeeping item that needed attention and the desk attendant immediately put a call in.And - did I mention free parking?  And...no noticeable noise from my room which overlooked the pool. Definitely would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r527056353-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527056353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accommodating and friendly </t>
+  </si>
+  <si>
+    <t>Staff is friendly and helpful. Checked us in so quickly on a late night when our rooms were given away at the nearby Element. Rooms are clean and spacious. Lobby is relaxing and restaurant is very good. Try the avocado toast with a latte and your day will start out great!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r497238521-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
@@ -240,9 +309,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r484040954-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -294,6 +360,54 @@
     <t>All the review will be good as my stay was very pleasant, check in was good the staff were excellent,The room was clean and up to date, did not have old furniture as the case with old hotels, the staff all throw the stay were very good I can’t say anything negative.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r473897215-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473897215</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Good Place When Traveling Through</t>
+  </si>
+  <si>
+    <t>We were just traveling through Houston, so we stayed at this hotel away from the central city.  I like a quiet room, and it took a little effort to get a room without traffic noise because the hotel is surrounded by highways and busy streets.  The hotel is a typical, older Courtyard with big lobby area and large courtyard.  It is well maintained and worked for us.  The bed was comfortable, and everything was clean.  The staff was nice and helped us find a quiet room.  It is located near a strip mall with several restaurants and a Target.  We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were just traveling through Houston, so we stayed at this hotel away from the central city.  I like a quiet room, and it took a little effort to get a room without traffic noise because the hotel is surrounded by highways and busy streets.  The hotel is a typical, older Courtyard with big lobby area and large courtyard.  It is well maintained and worked for us.  The bed was comfortable, and everything was clean.  The staff was nice and helped us find a quiet room.  It is located near a strip mall with several restaurants and a Target.  We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r467710326-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467710326</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent business hotel </t>
+  </si>
+  <si>
+    <t>Stayed here for 4 daysProsLocation is good. Market closeby, lots of eating options available near to this place. Standard rooms with all basic amenities. My room had good natural light. Staff is courteous ConsThe food was bit of disappointment. Didn't seem fresh each time i had food there. Fruits definitely didn't look fresh. ConsMoreShow less</t>
+  </si>
+  <si>
+    <t>jennifer h, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 daysProsLocation is good. Market closeby, lots of eating options available near to this place. Standard rooms with all basic amenities. My room had good natural light. Staff is courteous ConsThe food was bit of disappointment. Didn't seem fresh each time i had food there. Fruits definitely didn't look fresh. ConsMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r460556495-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -348,7 +462,46 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r436713467-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436713467</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Great location--- a lot of road noise</t>
+  </si>
+  <si>
+    <t>Mostly updated property.  The people make this place great. Rooms and lobby have been updated.  Beds are very comfortable.  Make sure to ask for a quieter room not facing the road.  Conveniently located by the HP campus. The staff was very helpful.  It can take 25-45 minutes to get ti Bush airport. Longer to Hobby</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r434403187-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434403187</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Marginal stay - Stay elsewhere.</t>
+  </si>
+  <si>
+    <t>Toilet seat would not stay up when going to bathroom.  HVAC is terrible.  Loud, rattles, etc.  Tried to stop the rattle, cover fell off, and still rattled.  No fridge.  Small TV, with poor placement.  Few HD channels.  Breakfast not good, even though was free...needs buffet, would be better.  First morning, had no hot water.  Brought it to the attention of front desk gal F2F in the morning. Told her I would like a warm shower her reply was "everyone would like a warm shower".  Doh!  Almost confronted her on the attitude, but figured I had to stay here another day.  I will stay at Element next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz S, General Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Toilet seat would not stay up when going to bathroom.  HVAC is terrible.  Loud, rattles, etc.  Tried to stop the rattle, cover fell off, and still rattled.  No fridge.  Small TV, with poor placement.  Few HD channels.  Breakfast not good, even though was free...needs buffet, would be better.  First morning, had no hot water.  Brought it to the attention of front desk gal F2F in the morning. Told her I would like a warm shower her reply was "everyone would like a warm shower".  Doh!  Almost confronted her on the attitude, but figured I had to stay here another day.  I will stay at Element next time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r430715344-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
@@ -366,12 +519,6 @@
     <t>A customer from out of town to attend a wedding had the misfortune of breaking a zipper while getting dressed.  Quick action by Oliver, the manager, got her in the hotel van and whisked her off to our store, T. Carolyn Fashions  8 mins away.  It was the quickest sale we've made in 25 years!  While Oliver waited outside in the running van, the frantic customer came in, tried on and purchased a dress.  Off they went and Oliver drove them  to the about to start wedding!  Now this is what I call first class service.  Kudos to Oliver and the Marriott Northwest.MoreShow less</t>
   </si>
   <si>
-    <t>Liz S, General Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded November 6, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 6, 2016</t>
-  </si>
-  <si>
     <t>A customer from out of town to attend a wedding had the misfortune of breaking a zipper while getting dressed.  Quick action by Oliver, the manager, got her in the hotel van and whisked her off to our store, T. Carolyn Fashions  8 mins away.  It was the quickest sale we've made in 25 years!  While Oliver waited outside in the running van, the frantic customer came in, tried on and purchased a dress.  Off they went and Oliver drove them  to the about to start wedding!  Now this is what I call first class service.  Kudos to Oliver and the Marriott Northwest.More</t>
   </si>
   <si>
@@ -423,15 +570,51 @@
     <t>I haven't stayed at this property in probably 10 years since their rates went up beyond the value that they offer.   This trip, though, I had business colleagues who wanted to stay there, so I did the same.   Well, for the price tag, this place really needs to do some upgrades.  It is really getting run down.   The room next to mine had open wiring in the wall and wallpaper peeled off of the wall.   My room was in slightly better shape, but the toilet tank leaks non-stop and therefore the only way to sleep in the room is to close the bathroom door to avoid hearing the constant sounds of water refilling the tank.   And on that bathroom door that had to be closed ... a sign asking me to save water by reusing my towel.   Really????More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r404075996-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404075996</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>No problems</t>
+  </si>
+  <si>
+    <t>With my weekly hotel stays this was the first one in a while where the a/c worked great, room was clean, check-in was fast, and bar/food was good.Nice to finally get a good stay.I would definitely return.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r391213999-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391213999</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Long business trip</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 5 weeks for a long business trip. It has all the basic needs for a good stay and would highly recommend for a longer duration trip. The staff were incredible and very friendly. It became like a family home to me. The gym (albeit a little small but it's never busy) and pool were great and access to the hotel from the freeway was very good. The location is nice and walking distance to Vintage Park that has a larger HEB grocery store, restaurants, cinema and bar. The only downside was that they stopped happy hour halffway through my trip.I would definitely stay at this hotel next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 5 weeks for a long business trip. It has all the basic needs for a good stay and would highly recommend for a longer duration trip. The staff were incredible and very friendly. It became like a family home to me. The gym (albeit a little small but it's never busy) and pool were great and access to the hotel from the freeway was very good. The location is nice and walking distance to Vintage Park that has a larger HEB grocery store, restaurants, cinema and bar. The only downside was that they stopped happy hour halffway through my trip.I would definitely stay at this hotel next time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r391054440-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>391054440</t>
   </si>
   <si>
-    <t>07/10/2016</t>
-  </si>
-  <si>
     <t>Great hotel!</t>
   </si>
   <si>
@@ -477,6 +660,57 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r365346901-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365346901</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Expensive cold shower</t>
+  </si>
+  <si>
+    <t>Nice facility in general but when it came time to shower and shave it was with water slightly warmer than pure cold. Told the front desk and they were aware of the problem but seemed unable to change/fix it or willing to offer a discount   Total bill for the room was $225 and I would've thought there would be more sensitivity towards a customer's experience or a ownership's discipline focused towards empowering front desk personnel to have a client leave the property with a positive sense of having experienced first class hospitality. Not so.MoreShow less</t>
+  </si>
+  <si>
+    <t>msboro75, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Nice facility in general but when it came time to shower and shave it was with water slightly warmer than pure cold. Told the front desk and they were aware of the problem but seemed unable to change/fix it or willing to offer a discount   Total bill for the room was $225 and I would've thought there would be more sensitivity towards a customer's experience or a ownership's discipline focused towards empowering front desk personnel to have a client leave the property with a positive sense of having experienced first class hospitality. Not so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r339811711-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339811711</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Lacking</t>
+  </si>
+  <si>
+    <t>I expected this to be a decent business hotel, located near the a major office park area.  But, it really let me down.  The room wasn't ready at check in time.  The hotel isn't one that has any room service options at all.  And, my toilet ran periodically -- very loudly -- with no apparent fix.  And, the shower didn't' work.  Oh, and the door didn't close unless you pushed it really really hard to slam it.  Altogether, not a positive experience and not a place I would recommend.  The staff was nice but my request to fix the toilet and shower were not addressed during the day and I had to call again when I got back to the room in the evening to get the shower fixed.  You can find someplace better.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>msboro75, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>I expected this to be a decent business hotel, located near the a major office park area.  But, it really let me down.  The room wasn't ready at check in time.  The hotel isn't one that has any room service options at all.  And, my toilet ran periodically -- very loudly -- with no apparent fix.  And, the shower didn't' work.  Oh, and the door didn't close unless you pushed it really really hard to slam it.  Altogether, not a positive experience and not a place I would recommend.  The staff was nice but my request to fix the toilet and shower were not addressed during the day and I had to call again when I got back to the room in the evening to get the shower fixed.  You can find someplace better.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r339521860-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -492,15 +726,6 @@
     <t>My husband came here on business and I accompanied him.  He is silver status Marriott member.  This hotel I feel is very basic.  They have the Bistro area like many of their hotels have.   Breakfast is not included in the cost and it's not a homemade breakfast sandwich..more like something you would get at Starbucks (items precooked and heated in microwave).  The lobby area is very nice with lots of seating.The staff are friendly but we have been treated more welcoming at other Marriott hotels ie (as a silver member we have been given a welcome bag with chips/apple/water/free breakfast sandwiches and drinks etc.  So compared to our other experiences this feels very stripped down and basic.  Does not mean it's bad...just an observation.Room was not very big, but bed was comfortable and it was clean.  Nice workout room with a variety of machines. Treadmill/elliptical/stationary bike and weights.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t>msboro75, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded January 16, 2016</t>
-  </si>
-  <si>
-    <t>Responded January 16, 2016</t>
-  </si>
-  <si>
     <t>My husband came here on business and I accompanied him.  He is silver status Marriott member.  This hotel I feel is very basic.  They have the Bistro area like many of their hotels have.   Breakfast is not included in the cost and it's not a homemade breakfast sandwich..more like something you would get at Starbucks (items precooked and heated in microwave).  The lobby area is very nice with lots of seating.The staff are friendly but we have been treated more welcoming at other Marriott hotels ie (as a silver member we have been given a welcome bag with chips/apple/water/free breakfast sandwiches and drinks etc.  So compared to our other experiences this feels very stripped down and basic.  Does not mean it's bad...just an observation.Room was not very big, but bed was comfortable and it was clean.  Nice workout room with a variety of machines. Treadmill/elliptical/stationary bike and weights.More</t>
   </si>
   <si>
@@ -540,6 +765,45 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r331894292-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331894292</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Plain Jane But Serviceable</t>
+  </si>
+  <si>
+    <t>Stayed one night in the Courtyard in Nov 2015. The hotel is plain Jane courtyard. Nothing special, base level decor and buildout...the same as the average to slightly better Fairfield. That said, nothing to complain about. The place was clean, the service was above average the TV and shower both worked well. I wish they (and many other Courtyard properties) would upgrade and install more outlets. Free breakfast, but I walked to the Egg &amp; I in the next parking lot, which was good. All in all, it was fine, but Courtyard has a lot to learn from he transformation of the brand at Hampton (rooms) and Hyatt Place (lobby). MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz S, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Stayed one night in the Courtyard in Nov 2015. The hotel is plain Jane courtyard. Nothing special, base level decor and buildout...the same as the average to slightly better Fairfield. That said, nothing to complain about. The place was clean, the service was above average the TV and shower both worked well. I wish they (and many other Courtyard properties) would upgrade and install more outlets. Free breakfast, but I walked to the Egg &amp; I in the next parking lot, which was good. All in all, it was fine, but Courtyard has a lot to learn from he transformation of the brand at Hampton (rooms) and Hyatt Place (lobby). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r319824005-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319824005</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>A pleasant respite from work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place was close to my work so it was rather convenient location wise. The staff was warm and welcoming! Tiffany and Joan stuck out in particular. My room was always clean when I came back from work without messing up how I had my luggage laid out on the bed I wasn't sleeping in. The hotel's bar was quite a nice treat too. Joan makes a good margarita and provided excellent restaurant suggestions for me and my coworkers. This is definitely where I will be staying when I come back to Houston. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r310773231-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -600,6 +864,57 @@
     <t>My in laws were at the Courtyard Marriott whenever they came into town but not anymore. The manager on duty Anaelisse was so unkind to me. She kept me waiting for over 30 minutes. Their customer service is terrible. Pick any other hotel in town if your looking to stay at a place with courtesy. They only received a rating of 1/5 from me because I couldn't choose 0/5. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r286980185-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286980185</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>If you're looking for an average place to stay at, and to have access to highway and a good place to go out , it's a good choice although my experience is not good .. My room didn't have fridge or microwave also the toilet was bad. I asked them to bring me the fridge and they said they ran out of them and they will put me in the list . Other than that it was an average stay all over MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Liz S, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded July 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2015</t>
+  </si>
+  <si>
+    <t>If you're looking for an average place to stay at, and to have access to highway and a good place to go out , it's a good choice although my experience is not good .. My room didn't have fridge or microwave also the toilet was bad. I asked them to bring me the fridge and they said they ran out of them and they will put me in the list . Other than that it was an average stay all over More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r281454760-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281454760</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Quiet and pleasant</t>
+  </si>
+  <si>
+    <t>Very neat, clean and quiet. Everything designed to satisfy the host. Employees very pleasant and helpful. Very recommended. Bed and pillows as requested. Climatization system perfect and not noisy at all. Couldn't hear the employees in the corridor. Worth a stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Very neat, clean and quiet. Everything designed to satisfy the host. Employees very pleasant and helpful. Very recommended. Bed and pillows as requested. Climatization system perfect and not noisy at all. Couldn't hear the employees in the corridor. Worth a stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r265569360-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -618,12 +933,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded June 21, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 21, 2015</t>
-  </si>
-  <si>
     <t>Attended a swim meet in the area. Hotel was very clean, rooms were very comfortable and the bed was amazing! A slight complaint, hotel was near full yet not much staff, those that were working were trying their best to check clients in, manage bar, etc. a few families were very unhappy with lengthy wait for cards, drinks, food etc.More</t>
   </si>
   <si>
@@ -672,6 +981,62 @@
     <t>When I entered- it was like coming back to an old place. All courtyard are the sameLobby is nice, breakfast is ok and the staff is welcomingThe room-Was clean, regularBut the TVER didn't work,properly and outside the room I had an air blowerThe noise was disturbingMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r258492592-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258492592</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>terrible, terrible, and terrible</t>
+  </si>
+  <si>
+    <t>it should deserve 0 star. Google you'd better update your rating system
+This hotel is terrible in every single way!!! No complimentary breakfast! No fridge in room! Even no flip flop! I stay for a month for business purpose, and every day at 6:45am the hotel's van has to take us to the work starting at 8. sometimes the work allowed us to come late like 9 or 10, but the hotel absolutely not let us do that. They ain't flexible at all. They said they have been contracted at 6:45am for departure and they are gonna stick to that, even we start in the afternoon. No mention that the van won't take you anywhere except for contracted places.
+And today, I found out they charged me 140$ for nothing!!! I checked with the reception and they said there is no record of purchase, but my credit card still showed up 3 transactions the day I checked in with total of 140$. Reception asked me to talk to their (unfriendly) manager. Whatever the reason is, it is just so stupid!
+Just unlike Towneplaces Suite hotel. Under Marriott operation too and stay behind Courtyard, but they are very friendly and helpful. They have everything in room: fridge, kitchen, complimentary breakfast and dinner, even happy hour with free beers. Hotel van could take you anywhere nearby. And CHEAPER than in Courtyard!!!
+I will not recommend this Courtyard to anyone I know, and...it should deserve 0 star. Google you'd better update your rating systemThis hotel is terrible in every single way!!! No complimentary breakfast! No fridge in room! Even no flip flop! I stay for a month for business purpose, and every day at 6:45am the hotel's van has to take us to the work starting at 8. sometimes the work allowed us to come late like 9 or 10, but the hotel absolutely not let us do that. They ain't flexible at all. They said they have been contracted at 6:45am for departure and they are gonna stick to that, even we start in the afternoon. No mention that the van won't take you anywhere except for contracted places.And today, I found out they charged me 140$ for nothing!!! I checked with the reception and they said there is no record of purchase, but my credit card still showed up 3 transactions the day I checked in with total of 140$. Reception asked me to talk to their (unfriendly) manager. Whatever the reason is, it is just so stupid!Just unlike Towneplaces Suite hotel. Under Marriott operation too and stay behind Courtyard, but they are very friendly and helpful. They have everything in room: fridge, kitchen, complimentary breakfast and dinner, even happy hour with free beers. Hotel van could take you anywhere nearby. And CHEAPER than in Courtyard!!!I will not recommend this Courtyard to anyone I know, and I'm gonna rate them as low as possible in every single site that I know.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>it should deserve 0 star. Google you'd better update your rating system
+This hotel is terrible in every single way!!! No complimentary breakfast! No fridge in room! Even no flip flop! I stay for a month for business purpose, and every day at 6:45am the hotel's van has to take us to the work starting at 8. sometimes the work allowed us to come late like 9 or 10, but the hotel absolutely not let us do that. They ain't flexible at all. They said they have been contracted at 6:45am for departure and they are gonna stick to that, even we start in the afternoon. No mention that the van won't take you anywhere except for contracted places.
+And today, I found out they charged me 140$ for nothing!!! I checked with the reception and they said there is no record of purchase, but my credit card still showed up 3 transactions the day I checked in with total of 140$. Reception asked me to talk to their (unfriendly) manager. Whatever the reason is, it is just so stupid!
+Just unlike Towneplaces Suite hotel. Under Marriott operation too and stay behind Courtyard, but they are very friendly and helpful. They have everything in room: fridge, kitchen, complimentary breakfast and dinner, even happy hour with free beers. Hotel van could take you anywhere nearby. And CHEAPER than in Courtyard!!!
+I will not recommend this Courtyard to anyone I know, and...it should deserve 0 star. Google you'd better update your rating systemThis hotel is terrible in every single way!!! No complimentary breakfast! No fridge in room! Even no flip flop! I stay for a month for business purpose, and every day at 6:45am the hotel's van has to take us to the work starting at 8. sometimes the work allowed us to come late like 9 or 10, but the hotel absolutely not let us do that. They ain't flexible at all. They said they have been contracted at 6:45am for departure and they are gonna stick to that, even we start in the afternoon. No mention that the van won't take you anywhere except for contracted places.And today, I found out they charged me 140$ for nothing!!! I checked with the reception and they said there is no record of purchase, but my credit card still showed up 3 transactions the day I checked in with total of 140$. Reception asked me to talk to their (unfriendly) manager. Whatever the reason is, it is just so stupid!Just unlike Towneplaces Suite hotel. Under Marriott operation too and stay behind Courtyard, but they are very friendly and helpful. They have everything in room: fridge, kitchen, complimentary breakfast and dinner, even happy hour with free beers. Hotel van could take you anywhere nearby. And CHEAPER than in Courtyard!!!I will not recommend this Courtyard to anyone I know, and I'm gonna rate them as low as possible in every single site that I know.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r258191107-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258191107</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Very poor stay</t>
+  </si>
+  <si>
+    <t>Poor front reception , horrible wifi!!!!!!very rude and unfriendly people.no room amenities like microwave or a fridge. laundry takes 3 days. very slow.housekeeping is decent.starbucks staff unfriendlyMoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded March 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2015</t>
+  </si>
+  <si>
+    <t>Poor front reception , horrible wifi!!!!!!very rude and unfriendly people.no room amenities like microwave or a fridge. laundry takes 3 days. very slow.housekeeping is decent.starbucks staff unfriendlyMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r257187503-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -741,6 +1106,51 @@
     <t>Nice place to stay, reasonable.Room was pristine.... Bed was awesome.   Bathroom clean as it gets.  Front desk staff cordial.  Housekeeping attentive.Was conveniently located, very trendy lobby area.   Surrounding area has much appeal... Shopping, restaurants, etc.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r253425802-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253425802</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel </t>
+  </si>
+  <si>
+    <t>My daughter plays on a travel softball team. We stay at alot of hotels. This was one of our best stays. From the moment we walked in and until check out, this hotel had great customer service. Greatest perk, it serves Starbucks!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter plays on a travel softball team. We stay at alot of hotels. This was one of our best stays. From the moment we walked in and until check out, this hotel had great customer service. Greatest perk, it serves Starbucks!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r251985805-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251985805</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Acceptable, but there is better out there...</t>
+  </si>
+  <si>
+    <t>Its a business hotel I guess, but it barely covers the basics.  WiFi is pretty stable, but the weakness is the dining choice.  It looks better (nicer furnishing) but is just a Hampton Inn / La Quinta in reality...Breakfast is the best of the lot, but lunch and dinner choices are very limited.  Either improve the menu and try to keep guest in your hotel - or take the 'restaurant' away, reduce the price and accept that guest will eat out.I'll be pushing to go elsewhere on my next trip - somewhere with a little more refinement.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Liz S, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Its a business hotel I guess, but it barely covers the basics.  WiFi is pretty stable, but the weakness is the dining choice.  It looks better (nicer furnishing) but is just a Hampton Inn / La Quinta in reality...Breakfast is the best of the lot, but lunch and dinner choices are very limited.  Either improve the menu and try to keep guest in your hotel - or take the 'restaurant' away, reduce the price and accept that guest will eat out.I'll be pushing to go elsewhere on my next trip - somewhere with a little more refinement.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r246892465-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -756,9 +1166,6 @@
     <t>This is a brand new hotel and was extremely convenient for our visit to family over New Year's Eve. We liked the modern decor, room was very comfortable, front desk staff was friendly and helpful. The problem was the temperature control system. It was 32 degrees outside the night we were there, but the heating unit never operated properly. It would come on, and once it reached a certain temp, the heat would go off and the AC would come on. It was WAY too cold out to be wanting any AC!. We tried all night to get it to hold a warm temp, but it never happened. And the fan ran all night long, even with the control set to "auto" rather than "fan". We reported this to the front desk twice prior to leaving the hotel, but found we weren't alone in our concern. Two other couples that were leaving reported the same problem with their rooms and their temperature control feature.MoreShow less</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
     <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded January 4, 2015</t>
   </si>
   <si>
@@ -819,6 +1226,57 @@
     <t>Very clean rooms. Had no problems getting extra pillows. "I love to snuggle" 1 problem i have to say with this hotel is there's only one employee working in the restaurant. But thankfully she's an amazing worker, Joan. I orderd a full meal from drinks to fresh cookies.. great conversation and excellent knowledge behind the bar she gave me good ideas on places to go within the area. I travel a lot and always make sure I stay at this hotel just for the warm service when I am in Houston..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r229791286-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229791286</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Comfortable room - mixed elsewhere</t>
+  </si>
+  <si>
+    <t>First of all the staff - all excellent.Comfortable rooms that are large and clean.Problems - event the paid for internet is frankly slow.  But the real problem is the Bistro - on Sunday night there was almost nothing available, and on Monday there were no french fries.  Come on guys if you are running out of something, go to a supermarket and buy some!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>First of all the staff - all excellent.Comfortable rooms that are large and clean.Problems - event the paid for internet is frankly slow.  But the real problem is the Bistro - on Sunday night there was almost nothing available, and on Monday there were no french fries.  Come on guys if you are running out of something, go to a supermarket and buy some!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r228022641-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228022641</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Great staff, awful internet</t>
+  </si>
+  <si>
+    <t>The location is great just a hop from HP where I am attending a conference. The staff is really nice but the internet in my room is awful. I always wonder why some hotels can't get something so simple right. I'm here for a week and I've had to spend most of my time in the lobby trying to do work. What a drag. The gym is small, as in very small only on bench but the outside area is nice with a pool and a hot-tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2014</t>
+  </si>
+  <si>
+    <t>The location is great just a hop from HP where I am attending a conference. The staff is really nice but the internet in my room is awful. I always wonder why some hotels can't get something so simple right. I'm here for a week and I've had to spend most of my time in the lobby trying to do work. What a drag. The gym is small, as in very small only on bench but the outside area is nice with a pool and a hot-tub.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r227002118-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -834,9 +1292,6 @@
     <t>Upon arriving, the lobby is welcoming and so are the staff.  We got into our room, unloaded all our items and got situated.  I realized the light bulb was out in the bathroom and you need it to take a shower (pretty dark).  I called down to the desk and let them know.  They said ok.  We left for dinner and I expected it to be taken care of.  Came back, and had not been replaced.  I called down again and was informed that there was no on one the premise to change the bulb.  I offered to change myself if they could bring a bulb-but was told they cannot get into the closet where they are kept.  He offered to move us to another room (he said was bigger and would upgrade at no charge).  We were moved just down the hall but same size room.  Everything was good with this room except while watching tv, the signal went out and the phone went out as well (i tried to call front desk)  Overall nice hotel good location.  Close to restaurants, mall, grocery, etc.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded September 6, 2014</t>
   </si>
   <si>
@@ -894,6 +1349,45 @@
     <t>I stayed two times thsi year in this Courtyard, January and June.The hotel is close to my work, so that's very conveniant.At check-in I noticed the professionalism of the staff.I felt myself appreciated.In January we had a situation, it was freezing in Houston.The motorists in the Houston area are not very used on this cold conditions and the news showed a lot of traffic jams, accidents and iced roads.This had an inpact on the availability of the staff in the breakfast room.Since the staff was not ontime, the staff of the reception started to make coffee and giving muffins for breakfast. Without billing you. Yes adaptive service, well done !I came back in June, this time I had a room at the back of the hotel.Because those rooms have less sunshine, the airco has to make less overtime.So for this I recommend a room at the back instead of the front of the hotel.The room was clean and the bed is of good quality.Considerations for improvements:Offer a more European style breakfastAn in-room safe, big enough to store a 15" laptop.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r221531529-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221531529</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>Nene and Maria went above and beyond to satisfy this customer! We have a group of 12 in town for training and they allowed us to bring pizza in from a local pizza shop. They had a table all set up for us and we couldn't have been more pleased!!! Kudos to the Marriott management team for 'taking care if the customer'.  This will be a good week.  Oh yes we did manage to run up a nice bar tab :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Nene and Maria went above and beyond to satisfy this customer! We have a group of 12 in town for training and they allowed us to bring pizza in from a local pizza shop. They had a table all set up for us and we couldn't have been more pleased!!! Kudos to the Marriott management team for 'taking care if the customer'.  This will be a good week.  Oh yes we did manage to run up a nice bar tab :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r219121811-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219121811</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Outstanding staff clean hotel</t>
+  </si>
+  <si>
+    <t>This is a great buisness hotel. The staff were excellent , Ne Ne , Juliet , the night team whose names a unfortunately failed to get , down to the general manager took great care and pride in service. Wil be back soon .</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r212140184-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1445,51 @@
     <t>If you're not here for business in the old Compaq you'll find the surroundings pretty boring.There are a frw restaurants and a bar in the strip mall just to the east of the hotel, and Brewskis, although loud, is the best of them. Great beer selection and decent food.The hotel itself: Clean and looks freshly updated. Very nice staff. My room, 214, was very noisy though - the wall air conditioner was extremely loud, as these things always are, and since it is necessary to keep it on 24/7 in Houston in June it made it difficult to sleep. Add to that that there seemed to be zero sound proofing in the walls, and you can imagine I've had better nights. Every time the people in the next room, or on the floors above, went to the toilet or had a shower I thought I had the Niagara Falls two feet from the head of the bedMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r208760707-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208760707</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Average Courtyard</t>
+  </si>
+  <si>
+    <t>This is an average Courtyard.  The room was clean, the bed comfortable, and the lobby was nice.  It is a good location if you are visiting HP and other nearby companies.  There are restaurants in the strip mall next to the hotel.  My only complaint with this and all Courtyards is that you get nothing extra by being Marriott Platinum (breakfast should be included).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Maria C, Manager at Courtyard by Marriott Houston Northwest, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>This is an average Courtyard.  The room was clean, the bed comfortable, and the lobby was nice.  It is a good location if you are visiting HP and other nearby companies.  There are restaurants in the strip mall next to the hotel.  My only complaint with this and all Courtyards is that you get nothing extra by being Marriott Platinum (breakfast should be included).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r204150081-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204150081</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Excellent for business trip</t>
+  </si>
+  <si>
+    <t>The hotel in very near to HP campus. I stayed there for 5 nights on a business trip and was extremely happy with the free WiFi service. The only issue was that there were no power plugs near to the beds.The rooms were neat and clean and also had a steam iron and board. The beds were comfortable and the bistro food is decent for breakfast or light snacks.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r201482133-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -966,9 +1505,6 @@
     <t>Excellent hotel near the campus of HP in Louetta RD, very clean and with free parking. I was on the first floor, but my upper floor fellows commented that in the morning they experience a losing of water pressure. They have a bistro that serves Starbucks coffee. They have free WiFi in the room, a little desk and a flat TV set.</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r196795189-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1550,42 @@
     <t>Two bills for a Courtyard? With no plugs near the bed and very frustratingly slow wifi. That is simply not acceptable nowadays. Get add on plugs for the nightstand and don't slow the connection down hoping I'll pay for improvement. I consider that insulting. (Other than that, it is a very average Courtyard.)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r184535045-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184535045</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>The worst internet connectivity I have experienced ever in a business hotel.</t>
+  </si>
+  <si>
+    <t>I arrived here since November 7 and the “free” internet connection is terrible; even the personnel is extremely kind and they are telling me the reason is because there are changing the internet provider, the fact is that is almost impossible to work here. The only possible reason I can imagine for someone to stay in this hotel is because business/work reasons, so, without a decent internet connectivity, there is no reason to book this hotel. Unfortunately, this is the last time that I will stay here. Yes, I'm Obviously frustrated!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r168905382-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168905382</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>Since this is an average hotel, I will just list the amenities it offers. The staff does seem friendly though. 1. Sofa in the room2. Seems like a clean room3. Balcony in each room4. Shuttle will take you anywhere within vicinity of the hotel However, the hotel is located in an office park and there really isn't much around it. The hotel is located right off a highway so you can hear all the traffic when on the balcony, but you can't hear the traffic in the room for the most part.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r167036823-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1655,45 @@
     <t>OK, does anyone think that for $200 in Houston one should expect a bathrobe, slippers and a bottle of water in the room?  Think again, this hotel offers none of the above, as you should just be happy to have a bed to sleep in. Shove it, Marriott, I want a refund!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r158723442-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158723442</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>We loved our stay at this hotel! First of all it was our wedding night and when we checked in the  lady at the front desk treated us to a free breakfast the next morning once she found out we had just gotten married. Our room was very clean and comfortable! But then when I woke up the next morning, my husband was in the shower and I went to the sink to brush my hair and flipped my new earring off that my sister had given me to wear at the wedding and down the drain it went!!! I was devasted! But to the rescue was the Marriott once again! This was a Sunday morning so they did not have anyone to take the drain apart but promised that no one would go into that room until my earring had been retrieved. And guess what! They kept their promise and had my earring safe and sound by 10:00 the next morning! What a relief for me! And what excellent customer service this hotel has!!!!! Many, many stars for them!MoreShow less</t>
+  </si>
+  <si>
+    <t>We loved our stay at this hotel! First of all it was our wedding night and when we checked in the  lady at the front desk treated us to a free breakfast the next morning once she found out we had just gotten married. Our room was very clean and comfortable! But then when I woke up the next morning, my husband was in the shower and I went to the sink to brush my hair and flipped my new earring off that my sister had given me to wear at the wedding and down the drain it went!!! I was devasted! But to the rescue was the Marriott once again! This was a Sunday morning so they did not have anyone to take the drain apart but promised that no one would go into that room until my earring had been retrieved. And guess what! They kept their promise and had my earring safe and sound by 10:00 the next morning! What a relief for me! And what excellent customer service this hotel has!!!!! Many, many stars for them!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r156868819-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156868819</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Quick pit stop</t>
+  </si>
+  <si>
+    <t>Stayed for a couple of nights in Feb'12 while on a business visit. Nothing to write home about. Nothing much except that it was close to my office and they provide a free shuttle from the hotel to my office. Rooms were small and neat. Right next door are couple of delis and a pub. Nothing much around the place....good for a quick pit stop if you're travelling around the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Stayed for a couple of nights in Feb'12 while on a business visit. Nothing to write home about. Nothing much except that it was close to my office and they provide a free shuttle from the hotel to my office. Rooms were small and neat. Right next door are couple of delis and a pub. Nothing much around the place....good for a quick pit stop if you're travelling around the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r153100200-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1748,42 @@
     <t xml:space="preserve">For the everyday business traveler, this location will suffice your needs. Located in the northwest corner of Houston, it has immediate access the highway system and a wide selection of eateries. The room, bedding, tv selections, and service were good. I would stay here again. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r135572667-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135572667</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Subpar Courtyard Facility</t>
+  </si>
+  <si>
+    <t>I travel quite a bit for work and for pleasure, and I stay in a lot of Marriott properties, including Courtyards. I was very underwhelmed by the Houston Northwest facility. The location is what it is, it's not a particularly scenic part of Houston but it is convenient for several nearby businesses (most notably HP, which is literally across the street).I found the nightly rate (I was on a corporate rate) to be rather high for the location, the amenities offered and the overall quality of the room. The lobby seems to have had a recent makeover, it's rather modern and is quite nice. But the rest of the facility (including the rooms) works more like an older, un-renovated multifloor motel. In particular, the walls and ceilings/floors seemed very thin, as I heard noise from the rooms around me at night and in the morning.The room was clean and well-maintained, it would be a nice addition if they would upgrade to TVs (or at least TV remotes) with sleep timers. The staff was very professional, engaging and helpful.I will probably be heading back to the northwest Houston area again for more business trips, and I will likely explore other lodging options when I do.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I travel quite a bit for work and for pleasure, and I stay in a lot of Marriott properties, including Courtyards. I was very underwhelmed by the Houston Northwest facility. The location is what it is, it's not a particularly scenic part of Houston but it is convenient for several nearby businesses (most notably HP, which is literally across the street).I found the nightly rate (I was on a corporate rate) to be rather high for the location, the amenities offered and the overall quality of the room. The lobby seems to have had a recent makeover, it's rather modern and is quite nice. But the rest of the facility (including the rooms) works more like an older, un-renovated multifloor motel. In particular, the walls and ceilings/floors seemed very thin, as I heard noise from the rooms around me at night and in the morning.The room was clean and well-maintained, it would be a nice addition if they would upgrade to TVs (or at least TV remotes) with sleep timers. The staff was very professional, engaging and helpful.I will probably be heading back to the northwest Houston area again for more business trips, and I will likely explore other lodging options when I do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r135235078-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135235078</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Value, Breakfast &amp; Friendly Staff</t>
+  </si>
+  <si>
+    <t>The Louetta Road Courtyard seems new; it's certainly clean and comfortable. Although not included in my July 2012 room rate, the onsite, cooked-to-order breakfast option was fantastic. The king bed was notably firm and comfortable. I'll surely return when family or work travel takes me to the Spring, Texas area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r129181022-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1844,45 @@
     <t>We live nearby and just needed a room for a couple of nights while our home was unavailable. Wanted something inexpensive but well appointed as we're used to nice hotels. Courtyard didn't disappoint. Very very clean, nice beds and lovely room. Extremely pleasant and also helpful staff. The eating area, like other courtyards, is actually a restaurant...there's not a free breakfast which is fine as we don't eat much in the morning anyway. There is a breakfast spot next door "The Egg and I" which is fine but always very crowded and service slow, though food is good. Others have detailed the stores nearby but I'll add Radio Shack is next door since I needed some things for my electronics while there. I read the review from 2010 of the SUV being broken into for golf clubs...a little unusual for clubs...a purse or briefcase/laptop in sight, is always an invitation to thieves, but not usually clubs. In Houston like any big city, I suggest if you want to keep something valuable in your trunk or car, no matter what part of town, stow it before you get to your parking area so you're not a target for thieves watching. Just a good general rule for going to the gym, restaurants, hotels, (and hotels near them) etc. We were very pleased with the upscale nature of the rooms.....didn't try the internet but would have been frustrated by that if I had...We live nearby and just needed a room for a couple of nights while our home was unavailable. Wanted something inexpensive but well appointed as we're used to nice hotels. Courtyard didn't disappoint. Very very clean, nice beds and lovely room. Extremely pleasant and also helpful staff. The eating area, like other courtyards, is actually a restaurant...there's not a free breakfast which is fine as we don't eat much in the morning anyway. There is a breakfast spot next door "The Egg and I" which is fine but always very crowded and service slow, though food is good. Others have detailed the stores nearby but I'll add Radio Shack is next door since I needed some things for my electronics while there. I read the review from 2010 of the SUV being broken into for golf clubs...a little unusual for clubs...a purse or briefcase/laptop in sight, is always an invitation to thieves, but not usually clubs. In Houston like any big city, I suggest if you want to keep something valuable in your trunk or car, no matter what part of town, stow it before you get to your parking area so you're not a target for thieves watching. Just a good general rule for going to the gym, restaurants, hotels, (and hotels near them) etc. We were very pleased with the upscale nature of the rooms.....didn't try the internet but would have been frustrated by that if I had needed it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r90437607-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>90437607</t>
+  </si>
+  <si>
+    <t>12/21/2010</t>
+  </si>
+  <si>
+    <t>Exceptional For A Courtyard</t>
+  </si>
+  <si>
+    <t>The staff was friendly, and the property was one of the cleanest I have ever stayed in.  Comfortable, relaxing property right off the freeway.  Highly recommend.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r55668911-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>55668911</t>
+  </si>
+  <si>
+    <t>02/10/2010</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>We were in town for club soccer at Meyers Park. We were about 10min from the field. Easy to get to and from the fields. Grocery store across the highway (HEB) but easy to get to. Along with HEB is a strip center that included a couple of sandwich shops. Right next to the hotel is a McDonalds, pizza place and a Taco Cabana. There is also a Shipley's doughnuts. Breakfast is not free so we ate breakfast tacos at Taco Cabana. The rooms were VERY clean. The front desk was very friendly and helpful. There is wired and and wifi in the room. Son was able to play online game with his ITouch. Would not have any problems staying here again or recommending this hotel. The fitness center had elipticals with TV's attached, treadmills with TV attached, weights and stationary bikes. They were up to date and user friendly. I enjoyed them.One negative, I asked and 800 operator if this hotel had a fridge and microwave and she said yes. That is not the case.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>We were in town for club soccer at Meyers Park. We were about 10min from the field. Easy to get to and from the fields. Grocery store across the highway (HEB) but easy to get to. Along with HEB is a strip center that included a couple of sandwich shops. Right next to the hotel is a McDonalds, pizza place and a Taco Cabana. There is also a Shipley's doughnuts. Breakfast is not free so we ate breakfast tacos at Taco Cabana. The rooms were VERY clean. The front desk was very friendly and helpful. There is wired and and wifi in the room. Son was able to play online game with his ITouch. Would not have any problems staying here again or recommending this hotel. The fitness center had elipticals with TV's attached, treadmills with TV attached, weights and stationary bikes. They were up to date and user friendly. I enjoyed them.One negative, I asked and 800 operator if this hotel had a fridge and microwave and she said yes. That is not the case.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r53197996-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1941,39 @@
   </si>
   <si>
     <t>This hotel has a great location for visiting clients - but that is about as positive as I can get this particular courtyard. They do not seem to recognize Gold status and compared to other courtyards in the US they handle customers in a production mode. The rooms are comparable to most courtyards but the front desk staff seem to know little about Marriott service and I frequently found staff sleeping in the back office. There is no shuttle service and getting to clients that are close by - but not within easy walking distance requires calling a cab. I have stayed at this site on a number of occasions and this was the worse experience. In the past I have had problems connecting to their internet (both in-room wired service and their lobby wireless). Their front desk food and beverage selection is minimal. This is definitely a "car required" hotel and does little to give its Elite and Gold customers an experience similar to what can be found in comparable Courtyards throughout the US.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r25157801-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>25157801</t>
+  </si>
+  <si>
+    <t>02/25/2009</t>
+  </si>
+  <si>
+    <t>Standard Courtyard Experience</t>
+  </si>
+  <si>
+    <t>Your typical Courtyard experience here....nothing out of the ordinary.  McDonalds and a gas station are within walking distance if you need it.  Right across the highway is a huge HEB and some quick serve restaurants.  Definitely practical if you need to call on HP right across the street.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r5383006-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5383006</t>
+  </si>
+  <si>
+    <t>06/25/2006</t>
+  </si>
+  <si>
+    <t>Loved it!!!</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights while attending a funeral. Ver nice, clean rooms. Great beds, plenty of pillows, pool, breakfast, newspaper. Stay here, you will enjoy it.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223144-r4229433-Courtyard_by_Marriott_Houston_Northwest-Houston_Texas.html</t>
@@ -1804,7 +2523,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1812,17 +2531,15 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1867,14 +2584,10 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1903,44 +2616,46 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
       <c r="P4" t="n">
         <v>4</v>
       </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1948,7 +2663,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1964,34 +2679,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2005,7 +2720,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2021,56 +2736,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2086,38 +2797,38 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>85</v>
-      </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
@@ -2128,14 +2839,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2151,7 +2858,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2160,45 +2867,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2214,7 +2915,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2223,25 +2924,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2255,7 +2956,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -2271,7 +2972,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2280,28 +2981,28 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2313,10 +3014,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2332,7 +3037,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2341,28 +3046,30 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
@@ -2373,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2395,40 +3102,42 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="O12" t="s">
         <v>120</v>
       </c>
-      <c r="J12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
       <c r="P12" t="n">
         <v>4</v>
       </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2438,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -2460,7 +3169,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2469,49 +3178,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2527,41 +3230,43 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>135</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>140</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2572,7 +3277,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -2588,7 +3293,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2597,22 +3302,22 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
@@ -2629,7 +3334,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -2645,43 +3350,41 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>147</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>148</v>
-      </c>
-      <c r="J16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>152</v>
-      </c>
       <c r="O16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2692,7 +3395,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2708,58 +3411,52 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>153</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>158</v>
-      </c>
       <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>159</v>
-      </c>
-      <c r="X17" t="s">
-        <v>160</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2775,7 +3472,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2784,39 +3481,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" t="s"/>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" t="s">
+        <v>160</v>
+      </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -2832,7 +3537,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2841,32 +3546,30 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2874,10 +3577,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>159</v>
+      </c>
+      <c r="X19" t="s">
+        <v>160</v>
+      </c>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -2893,7 +3600,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2902,28 +3609,28 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -2935,10 +3642,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>174</v>
+      </c>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
@@ -2954,54 +3665,58 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
         <v>180</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>181</v>
-      </c>
-      <c r="J21" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" t="s">
-        <v>183</v>
-      </c>
-      <c r="L21" t="s">
-        <v>184</v>
-      </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
@@ -3017,48 +3732,52 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
         <v>186</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>187</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>188</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>189</v>
       </c>
-      <c r="L22" t="s">
-        <v>190</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>191</v>
-      </c>
-      <c r="X22" t="s">
-        <v>192</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
@@ -3074,52 +3793,54 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
         <v>194</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>195</v>
-      </c>
-      <c r="J23" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" t="s">
-        <v>197</v>
-      </c>
-      <c r="L23" t="s">
-        <v>198</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>199</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
-      <c r="P23" t="s"/>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>200</v>
-      </c>
-      <c r="X23" t="s">
-        <v>201</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
@@ -3135,7 +3856,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3144,49 +3865,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>208</v>
-      </c>
-      <c r="X24" t="s">
-        <v>209</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
@@ -3202,7 +3917,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3211,47 +3926,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>208</v>
-      </c>
-      <c r="X25" t="s">
-        <v>209</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
@@ -3267,7 +3974,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3276,49 +3983,45 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O26" t="s">
-        <v>110</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>224</v>
-      </c>
-      <c r="X26" t="s">
-        <v>225</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
@@ -3334,7 +4037,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3343,47 +4046,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="X27" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
@@ -3399,7 +4104,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3408,49 +4113,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="X28" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Y28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
@@ -3466,7 +4171,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3475,22 +4180,22 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
@@ -3501,23 +4206,23 @@
         <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="X29" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -3533,7 +4238,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3542,47 +4247,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>256</v>
-      </c>
-      <c r="X30" t="s">
-        <v>257</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
@@ -3598,7 +4295,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3607,31 +4304,29 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="N31" t="s">
+        <v>248</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -3642,14 +4337,10 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>264</v>
-      </c>
-      <c r="X31" t="s">
-        <v>265</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32">
@@ -3665,7 +4356,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3674,49 +4365,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="X32" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
@@ -3732,7 +4417,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3741,25 +4426,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3770,14 +4455,10 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>282</v>
-      </c>
-      <c r="X33" t="s">
-        <v>283</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -3793,7 +4474,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3802,31 +4483,31 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3838,7 +4519,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35">
@@ -3854,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3863,41 +4544,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3905,7 +4582,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36">
@@ -3921,7 +4598,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3930,26 +4607,22 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s">
-        <v>290</v>
-      </c>
-      <c r="O36" t="s">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
@@ -3960,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="X36" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Y36" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
@@ -3982,7 +4655,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3991,49 +4664,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="J37" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="K37" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>288</v>
+      </c>
+      <c r="X37" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y37" t="s">
         <v>290</v>
-      </c>
-      <c r="O37" t="s">
-        <v>67</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
-      <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="38">
@@ -4049,7 +4716,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4058,49 +4725,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>296</v>
+      </c>
+      <c r="X38" t="s">
+        <v>297</v>
+      </c>
       <c r="Y38" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
@@ -4116,7 +4777,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4125,49 +4786,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>296</v>
+      </c>
+      <c r="X39" t="s">
+        <v>297</v>
+      </c>
       <c r="Y39" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
@@ -4183,7 +4838,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4192,43 +4847,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="J40" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="X40" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="Y40" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
@@ -4244,7 +4905,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4253,45 +4914,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
+      <c r="N41" t="s">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>311</v>
+      </c>
+      <c r="X41" t="s">
+        <v>312</v>
+      </c>
       <c r="Y41" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
@@ -4307,7 +4970,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4316,53 +4979,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="X42" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="Y42" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43">
@@ -4378,7 +5037,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4387,43 +5046,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="J43" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K43" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="X43" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="Y43" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44">
@@ -4439,7 +5102,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4448,53 +5111,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="K44" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
         <v>4</v>
       </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="X44" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45">
@@ -4510,7 +5169,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4519,49 +5178,47 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="J45" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>343</v>
+      </c>
+      <c r="X45" t="s">
+        <v>344</v>
+      </c>
       <c r="Y45" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46">
@@ -4577,7 +5234,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4586,45 +5243,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="J46" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K46" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s"/>
       <c r="O46" t="s"/>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>357</v>
+      </c>
+      <c r="X46" t="s">
+        <v>358</v>
+      </c>
       <c r="Y46" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47">
@@ -4640,7 +5301,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4649,49 +5310,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>357</v>
+      </c>
+      <c r="X47" t="s">
+        <v>358</v>
+      </c>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48">
@@ -4707,7 +5362,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4716,49 +5371,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="J48" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="K48" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>372</v>
+      </c>
+      <c r="X48" t="s">
+        <v>373</v>
+      </c>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49">
@@ -4774,7 +5423,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4783,34 +5432,30 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="O49" t="s">
-        <v>110</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -4822,10 +5467,14 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>380</v>
+      </c>
+      <c r="X49" t="s">
+        <v>381</v>
+      </c>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
@@ -4841,7 +5490,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4850,49 +5499,47 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
       </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>389</v>
+      </c>
+      <c r="X50" t="s">
+        <v>390</v>
+      </c>
       <c r="Y50" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51">
@@ -4908,48 +5555,58 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" t="s">
+        <v>395</v>
+      </c>
+      <c r="L51" t="s">
+        <v>396</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>397</v>
+      </c>
+      <c r="X51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y51" t="s">
         <v>399</v>
-      </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
-        <v>400</v>
-      </c>
-      <c r="J51" t="s">
-        <v>401</v>
-      </c>
-      <c r="K51" t="s">
-        <v>402</v>
-      </c>
-      <c r="L51" t="s">
-        <v>403</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2</v>
-      </c>
-      <c r="N51" t="s">
-        <v>404</v>
-      </c>
-      <c r="O51" t="s">
-        <v>67</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
-      <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="52">
@@ -4965,7 +5622,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4974,49 +5631,47 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J52" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K52" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>2</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
         <v>3</v>
       </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>406</v>
+      </c>
+      <c r="X52" t="s">
+        <v>407</v>
+      </c>
       <c r="Y52" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53">
@@ -5032,52 +5687,2420 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53" t="s">
+        <v>412</v>
+      </c>
+      <c r="L53" t="s">
         <v>413</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
-        <v>414</v>
-      </c>
-      <c r="J53" t="s">
-        <v>415</v>
-      </c>
-      <c r="K53" t="s">
-        <v>416</v>
-      </c>
-      <c r="L53" t="s">
-        <v>417</v>
-      </c>
       <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>405</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
       <c r="S53" t="n">
         <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>414</v>
+      </c>
+      <c r="X53" t="s">
+        <v>415</v>
+      </c>
       <c r="Y53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
         <v>417</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" t="s">
+        <v>421</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>405</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>422</v>
+      </c>
+      <c r="X54" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L55" t="s">
+        <v>429</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>430</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>431</v>
+      </c>
+      <c r="X55" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>434</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>435</v>
+      </c>
+      <c r="J56" t="s">
+        <v>436</v>
+      </c>
+      <c r="K56" t="s">
+        <v>437</v>
+      </c>
+      <c r="L56" t="s">
+        <v>438</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>439</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>442</v>
+      </c>
+      <c r="J57" t="s">
+        <v>443</v>
+      </c>
+      <c r="K57" t="s">
+        <v>444</v>
+      </c>
+      <c r="L57" t="s">
+        <v>445</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>430</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>446</v>
+      </c>
+      <c r="X57" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>454</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>455</v>
+      </c>
+      <c r="J59" t="s">
+        <v>456</v>
+      </c>
+      <c r="K59" t="s">
+        <v>457</v>
+      </c>
+      <c r="L59" t="s">
+        <v>458</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>439</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>459</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>460</v>
+      </c>
+      <c r="J60" t="s">
+        <v>461</v>
+      </c>
+      <c r="K60" t="s">
+        <v>462</v>
+      </c>
+      <c r="L60" t="s">
+        <v>463</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>439</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>464</v>
+      </c>
+      <c r="X60" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>467</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>468</v>
+      </c>
+      <c r="J61" t="s">
+        <v>469</v>
+      </c>
+      <c r="K61" t="s">
+        <v>470</v>
+      </c>
+      <c r="L61" t="s">
+        <v>471</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>439</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>473</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>474</v>
+      </c>
+      <c r="J62" t="s">
+        <v>475</v>
+      </c>
+      <c r="K62" t="s">
+        <v>476</v>
+      </c>
+      <c r="L62" t="s">
+        <v>477</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>478</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>479</v>
+      </c>
+      <c r="X62" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>482</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>483</v>
+      </c>
+      <c r="J63" t="s">
+        <v>484</v>
+      </c>
+      <c r="K63" t="s">
+        <v>485</v>
+      </c>
+      <c r="L63" t="s">
+        <v>486</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>487</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>489</v>
+      </c>
+      <c r="J64" t="s">
+        <v>490</v>
+      </c>
+      <c r="K64" t="s">
+        <v>491</v>
+      </c>
+      <c r="L64" t="s">
+        <v>492</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>487</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>493</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>494</v>
+      </c>
+      <c r="J65" t="s">
+        <v>495</v>
+      </c>
+      <c r="K65" t="s">
+        <v>496</v>
+      </c>
+      <c r="L65" t="s">
+        <v>497</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>498</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>500</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>501</v>
+      </c>
+      <c r="J66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K66" t="s">
+        <v>503</v>
+      </c>
+      <c r="L66" t="s">
+        <v>504</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>498</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>505</v>
+      </c>
+      <c r="X66" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>508</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>509</v>
+      </c>
+      <c r="J67" t="s">
+        <v>510</v>
+      </c>
+      <c r="K67" t="s">
+        <v>511</v>
+      </c>
+      <c r="L67" t="s">
+        <v>512</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>513</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>514</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>515</v>
+      </c>
+      <c r="J68" t="s">
+        <v>516</v>
+      </c>
+      <c r="K68" t="s">
+        <v>517</v>
+      </c>
+      <c r="L68" t="s">
+        <v>518</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>519</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>520</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>521</v>
+      </c>
+      <c r="J69" t="s">
+        <v>522</v>
+      </c>
+      <c r="K69" t="s">
+        <v>523</v>
+      </c>
+      <c r="L69" t="s">
+        <v>524</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>525</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>526</v>
+      </c>
+      <c r="J70" t="s">
+        <v>527</v>
+      </c>
+      <c r="K70" t="s">
+        <v>528</v>
+      </c>
+      <c r="L70" t="s">
+        <v>529</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>530</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>531</v>
+      </c>
+      <c r="X70" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>534</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>535</v>
+      </c>
+      <c r="J71" t="s">
+        <v>536</v>
+      </c>
+      <c r="K71" t="s">
+        <v>537</v>
+      </c>
+      <c r="L71" t="s">
+        <v>538</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>539</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>540</v>
+      </c>
+      <c r="X71" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>543</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>544</v>
+      </c>
+      <c r="J72" t="s">
+        <v>545</v>
+      </c>
+      <c r="K72" t="s">
+        <v>546</v>
+      </c>
+      <c r="L72" t="s">
+        <v>547</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>530</v>
+      </c>
+      <c r="O72" t="s">
+        <v>120</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>540</v>
+      </c>
+      <c r="X72" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>549</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>550</v>
+      </c>
+      <c r="J73" t="s">
+        <v>551</v>
+      </c>
+      <c r="K73" t="s">
+        <v>552</v>
+      </c>
+      <c r="L73" t="s">
+        <v>553</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>554</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>540</v>
+      </c>
+      <c r="X73" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>556</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>557</v>
+      </c>
+      <c r="J74" t="s">
+        <v>558</v>
+      </c>
+      <c r="K74" t="s">
+        <v>559</v>
+      </c>
+      <c r="L74" t="s">
+        <v>560</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>561</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>540</v>
+      </c>
+      <c r="X74" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>563</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>564</v>
+      </c>
+      <c r="J75" t="s">
+        <v>565</v>
+      </c>
+      <c r="K75" t="s">
+        <v>566</v>
+      </c>
+      <c r="L75" t="s">
+        <v>567</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>568</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>569</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>570</v>
+      </c>
+      <c r="J76" t="s">
+        <v>571</v>
+      </c>
+      <c r="K76" t="s">
+        <v>572</v>
+      </c>
+      <c r="L76" t="s">
+        <v>573</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>575</v>
+      </c>
+      <c r="J77" t="s">
+        <v>576</v>
+      </c>
+      <c r="K77" t="s">
+        <v>577</v>
+      </c>
+      <c r="L77" t="s">
+        <v>578</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>579</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>582</v>
+      </c>
+      <c r="J78" t="s">
+        <v>583</v>
+      </c>
+      <c r="K78" t="s">
+        <v>584</v>
+      </c>
+      <c r="L78" t="s">
+        <v>585</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>579</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>586</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>587</v>
+      </c>
+      <c r="J79" t="s">
+        <v>588</v>
+      </c>
+      <c r="K79" t="s">
+        <v>589</v>
+      </c>
+      <c r="L79" t="s">
+        <v>590</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>591</v>
+      </c>
+      <c r="O79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>592</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>593</v>
+      </c>
+      <c r="J80" t="s">
+        <v>594</v>
+      </c>
+      <c r="K80" t="s">
+        <v>595</v>
+      </c>
+      <c r="L80" t="s">
+        <v>596</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>597</v>
+      </c>
+      <c r="O80" t="s">
+        <v>65</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>599</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>600</v>
+      </c>
+      <c r="J81" t="s">
+        <v>601</v>
+      </c>
+      <c r="K81" t="s">
+        <v>602</v>
+      </c>
+      <c r="L81" t="s">
+        <v>603</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>604</v>
+      </c>
+      <c r="O81" t="s">
+        <v>120</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>606</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>607</v>
+      </c>
+      <c r="J82" t="s">
+        <v>608</v>
+      </c>
+      <c r="K82" t="s">
+        <v>609</v>
+      </c>
+      <c r="L82" t="s">
+        <v>610</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>611</v>
+      </c>
+      <c r="O82" t="s">
+        <v>120</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>612</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>613</v>
+      </c>
+      <c r="J83" t="s">
+        <v>614</v>
+      </c>
+      <c r="K83" t="s">
+        <v>615</v>
+      </c>
+      <c r="L83" t="s">
+        <v>616</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>617</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>619</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>620</v>
+      </c>
+      <c r="J84" t="s">
+        <v>621</v>
+      </c>
+      <c r="K84" t="s">
+        <v>622</v>
+      </c>
+      <c r="L84" t="s">
+        <v>623</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>624</v>
+      </c>
+      <c r="O84" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>625</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>626</v>
+      </c>
+      <c r="J85" t="s">
+        <v>627</v>
+      </c>
+      <c r="K85" t="s">
+        <v>628</v>
+      </c>
+      <c r="L85" t="s">
+        <v>629</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>630</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>632</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>633</v>
+      </c>
+      <c r="J86" t="s">
+        <v>634</v>
+      </c>
+      <c r="K86" t="s">
+        <v>635</v>
+      </c>
+      <c r="L86" t="s">
+        <v>636</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>637</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>639</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>640</v>
+      </c>
+      <c r="J87" t="s">
+        <v>641</v>
+      </c>
+      <c r="K87" t="s">
+        <v>642</v>
+      </c>
+      <c r="L87" t="s">
+        <v>643</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>644</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>645</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>646</v>
+      </c>
+      <c r="J88" t="s">
+        <v>647</v>
+      </c>
+      <c r="K88" t="s">
+        <v>648</v>
+      </c>
+      <c r="L88" t="s">
+        <v>649</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>41095</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>650</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>651</v>
+      </c>
+      <c r="J89" t="s">
+        <v>652</v>
+      </c>
+      <c r="K89" t="s">
+        <v>653</v>
+      </c>
+      <c r="L89" t="s">
+        <v>654</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
